--- a/data/hotels_by_city/Houston/Houston_shard_151.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_151.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="394">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d6161700-Reviews-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
   </si>
   <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Courtyard-By-Marriott-Houston-NW290-Corridor.h7757563.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1080 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/08/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r592033627-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>6161700</t>
+  </si>
+  <si>
+    <t>592033627</t>
+  </si>
+  <si>
+    <t>06/30/2018</t>
+  </si>
+  <si>
+    <t>Alright</t>
+  </si>
+  <si>
+    <t>We came to town to see a comedian at Houston Improv.  Everything we did was about a 15 minute drive so we will be staying closer to things next time.  The hotel staff was very friendly and always had smiles.  The area is a bit sketchy and there isn’t much close by.  The room was nice and clean.  King bed was really comfortable.  This is the first Courtyard we stayed at that there wasn’t a free breakfast but that wasn’t a big deal.  MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Leticia G, General Manager at Courtyard Houston NW/290 Corridor, responded to this reviewResponded July 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 3, 2018</t>
+  </si>
+  <si>
+    <t>We came to town to see a comedian at Houston Improv.  Everything we did was about a 15 minute drive so we will be staying closer to things next time.  The hotel staff was very friendly and always had smiles.  The area is a bit sketchy and there isn’t much close by.  The room was nice and clean.  King bed was really comfortable.  This is the first Courtyard we stayed at that there wasn’t a free breakfast but that wasn’t a big deal.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r591770969-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>591770969</t>
+  </si>
+  <si>
+    <t>06/29/2018</t>
+  </si>
+  <si>
+    <t>Do not stay here!!!! Stay was terrible!!</t>
+  </si>
+  <si>
+    <t>First I want to say that the breakfast team, is extremely slow and unfriendly. The two people that I seen in the bistro was Abbie and Michelle. They don't even smile or greet no one. I had to wait 20 minutes for a coffee. They just look so unhappy. The front desk agent, Nivia was with no smiles as well and just seemed like I was a bother when I had questions about the city whereabouts. Customer service is extremely important to me, yet I will not be back and I will make sure my company does not book at this hotel for the future.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>First I want to say that the breakfast team, is extremely slow and unfriendly. The two people that I seen in the bistro was Abbie and Michelle. They don't even smile or greet no one. I had to wait 20 minutes for a coffee. They just look so unhappy. The front desk agent, Nivia was with no smiles as well and just seemed like I was a bother when I had questions about the city whereabouts. Customer service is extremely important to me, yet I will not be back and I will make sure my company does not book at this hotel for the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r588854282-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>588854282</t>
+  </si>
+  <si>
+    <t>06/19/2018</t>
+  </si>
+  <si>
+    <t>Business traveler? This is not your hotel.</t>
+  </si>
+  <si>
+    <t>I'm a cybersecurity consultant. I booked here for a month on for a short notice trip. The Internet is required when I travel. The Internet here is third world quality. The place is nice, but there's no free breakfast, the internet is terrible, and this morning, most of my laundry didn't come back. The staff is nice and the place well appointed but for a business traveler who works long days every day while on the road, I won't be staying here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Leticia G, General Manager at Courtyard Houston NW/290 Corridor, responded to this reviewResponded June 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 20, 2018</t>
+  </si>
+  <si>
+    <t>I'm a cybersecurity consultant. I booked here for a month on for a short notice trip. The Internet is required when I travel. The Internet here is third world quality. The place is nice, but there's no free breakfast, the internet is terrible, and this morning, most of my laundry didn't come back. The staff is nice and the place well appointed but for a business traveler who works long days every day while on the road, I won't be staying here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r579641610-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>579641610</t>
+  </si>
+  <si>
+    <t>05/12/2018</t>
+  </si>
+  <si>
+    <t>Good property for its category</t>
+  </si>
+  <si>
+    <t>Stayed a night for the first time this past week.  Property is located next to the highway, but my room faced the back and was quiet.  There are places to eat fairly close, but not within walking distance.  Room was clean and decorated nicely.  I really like the walk in shower as opposed to the old tub/shower combo.  Breakfast is typical Courtyard fare, but service was great.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>Leticia G, General Manager at Courtyard Houston NW/290 Corridor, responded to this reviewResponded May 30, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 30, 2018</t>
+  </si>
+  <si>
+    <t>Stayed a night for the first time this past week.  Property is located next to the highway, but my room faced the back and was quiet.  There are places to eat fairly close, but not within walking distance.  Room was clean and decorated nicely.  I really like the walk in shower as opposed to the old tub/shower combo.  Breakfast is typical Courtyard fare, but service was great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r574364329-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>574364329</t>
+  </si>
+  <si>
+    <t>04/19/2018</t>
+  </si>
+  <si>
+    <t>The Bistro Staff. Greta and Abbie</t>
+  </si>
+  <si>
+    <t>I have to travel often for business and these two ladies are some of the sweetest people I have ever had the chance to meet.  They go above and beyond their normal duties to make you feel comfortable and welcomed.  If you have the chance to visit Houston and need a place to stay I definitely recommend this Courtyard just to meet these two sweet ladies.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>HospitalityDriven, Front Office Manager at Courtyard Houston NW/290 Corridor, responded to this reviewResponded April 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 20, 2018</t>
+  </si>
+  <si>
+    <t>I have to travel often for business and these two ladies are some of the sweetest people I have ever had the chance to meet.  They go above and beyond their normal duties to make you feel comfortable and welcomed.  If you have the chance to visit Houston and need a place to stay I definitely recommend this Courtyard just to meet these two sweet ladies.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r565252952-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>565252952</t>
+  </si>
+  <si>
+    <t>03/08/2018</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>I stay here quite often when working in the area.  Rooms are always clean, staff is very friendly.  The breakfast team is fantastic, Gretta and Michele are awesome.Would have gievn the highest rating, except air conditioners are very loud, may need some rework.Keep up.the great work!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>HospitalityDriven, Front Office Manager at Courtyard Houston NW/290 Corridor, responded to this reviewResponded March 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 9, 2018</t>
+  </si>
+  <si>
+    <t>I stay here quite often when working in the area.  Rooms are always clean, staff is very friendly.  The breakfast team is fantastic, Gretta and Michele are awesome.Would have gievn the highest rating, except air conditioners are very loud, may need some rework.Keep up.the great work!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r541422728-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>541422728</t>
+  </si>
+  <si>
+    <t>11/16/2017</t>
+  </si>
+  <si>
+    <t>Very friendly staff</t>
+  </si>
+  <si>
+    <t>I've had the opportunity to stay at this property a number of times, including the week of the Super Bowl.  My most recent stay was after the hotel opened, following the hurricane.  The staff, there, has been so friendly and helpful.  I found this to be the case, particularly, in the café.  Gretta and Michelle are just the best.  I highly recommend staying at this property.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>HospitalityDriven, General Manager at Courtyard Houston NW/290 Corridor, responded to this reviewResponded December 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 5, 2017</t>
+  </si>
+  <si>
+    <t>I've had the opportunity to stay at this property a number of times, including the week of the Super Bowl.  My most recent stay was after the hotel opened, following the hurricane.  The staff, there, has been so friendly and helpful.  I found this to be the case, particularly, in the café.  Gretta and Michelle are just the best.  I highly recommend staying at this property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r539775087-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>539775087</t>
+  </si>
+  <si>
+    <t>11/09/2017</t>
+  </si>
+  <si>
+    <t>First time in Houston</t>
+  </si>
+  <si>
+    <t>I really like my stays with Marriott. This is my first trip and stay at this courtyard in Houston Texas.  I just got to the hotel off of a three hour flight from Detroit. I arrived at the hotel and the computers were down! So that meant no check ins. Tyne stag wad very polite and did everything they could do to keep me from blowing up! They got me into my room vey quickly. Rooms were very nice, the chef they have there did a wonderful job with my breakfast the next morning, sand the manager was very attentive to any of my concerns.  I usually only express my problems but this time I'm happy to give praise to a job well done! Front desk, kitchen, and housekeeping. MoreShow less</t>
+  </si>
+  <si>
+    <t>I really like my stays with Marriott. This is my first trip and stay at this courtyard in Houston Texas.  I just got to the hotel off of a three hour flight from Detroit. I arrived at the hotel and the computers were down! So that meant no check ins. Tyne stag wad very polite and did everything they could do to keep me from blowing up! They got me into my room vey quickly. Rooms were very nice, the chef they have there did a wonderful job with my breakfast the next morning, sand the manager was very attentive to any of my concerns.  I usually only express my problems but this time I'm happy to give praise to a job well done! Front desk, kitchen, and housekeeping. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r538569028-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>538569028</t>
+  </si>
+  <si>
+    <t>11/05/2017</t>
+  </si>
+  <si>
+    <t>Like home</t>
+  </si>
+  <si>
+    <t>I have stayed here for business many times this year. The friendly staff always makes me feel like part of family. This last time however they went above and beyond. Michelle and Gretchin made special french toast for my wife and delivered it to our room. I can not express how special this was and wonderful these two employees are. This is but one of the many reasons we only stay at Marriot.Sincerely,Alan C SpeerMoreShow less</t>
+  </si>
+  <si>
+    <t>Greg M, General Manager at Courtyard Houston NW/290 Corridor, responded to this reviewResponded November 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 7, 2017</t>
+  </si>
+  <si>
+    <t>I have stayed here for business many times this year. The friendly staff always makes me feel like part of family. This last time however they went above and beyond. Michelle and Gretchin made special french toast for my wife and delivered it to our room. I can not express how special this was and wonderful these two employees are. This is but one of the many reasons we only stay at Marriot.Sincerely,Alan C SpeerMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r514370481-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>514370481</t>
+  </si>
+  <si>
+    <t>08/17/2017</t>
+  </si>
+  <si>
+    <t>Best Customer Service EVER</t>
+  </si>
+  <si>
+    <t>I was in Houston on a business trip and was able to check in to my room early so I could begin working. Upon arriving in my room I sat down at the desk and began working. About 2 hours in, I noticed ants kept crawling on my arm. I called down to the front desk and spoke to Marcus the office manager about it. He was up to my room within minutes and got me a new room without any discussion. It appeared that there was a spill on the desk and there were sugar ants. Marcus offered to move my things and everything then awarded me points for an additional stay another time. The new room had no issues at all and I was so pleased that the hotel valued me enough to make sure I was happy. I will surely stay there again just for the customer service.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>GuestRelationsHoucn, Front Office Manager at Courtyard Houston NW/290 Corridor, responded to this reviewResponded August 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 18, 2017</t>
+  </si>
+  <si>
+    <t>I was in Houston on a business trip and was able to check in to my room early so I could begin working. Upon arriving in my room I sat down at the desk and began working. About 2 hours in, I noticed ants kept crawling on my arm. I called down to the front desk and spoke to Marcus the office manager about it. He was up to my room within minutes and got me a new room without any discussion. It appeared that there was a spill on the desk and there were sugar ants. Marcus offered to move my things and everything then awarded me points for an additional stay another time. The new room had no issues at all and I was so pleased that the hotel valued me enough to make sure I was happy. I will surely stay there again just for the customer service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r514314881-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>514314881</t>
+  </si>
+  <si>
+    <t>My 2nd stay &amp; just as good as the 1st time!</t>
+  </si>
+  <si>
+    <t>Great location right off I-290. It's a very new property and in beautiful condition. It's modern, pleasing lighting, nice vibe and very friendly staff! The 24 hour mini-store is a great feature and the Bistro in the lobby is very convenient for travelers on the go!MoreShow less</t>
+  </si>
+  <si>
+    <t>Great location right off I-290. It's a very new property and in beautiful condition. It's modern, pleasing lighting, nice vibe and very friendly staff! The 24 hour mini-store is a great feature and the Bistro in the lobby is very convenient for travelers on the go!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r514262601-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>514262601</t>
+  </si>
+  <si>
+    <t>Wonderful Staff</t>
+  </si>
+  <si>
+    <t>Stayed for a quick overnight trip for work.  In the morning was greeted by the most wonderful personal staff at the Bistro.   Everyone here is so nice.  Greta made the most wonderful avocado toast breakfast, very pleasant surprise at the Courtyard! MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed for a quick overnight trip for work.  In the morning was greeted by the most wonderful personal staff at the Bistro.   Everyone here is so nice.  Greta made the most wonderful avocado toast breakfast, very pleasant surprise at the Courtyard! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r485419653-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>485419653</t>
+  </si>
+  <si>
+    <t>05/18/2017</t>
+  </si>
+  <si>
+    <t>If you have business in the area, I highly recommend this hotel</t>
+  </si>
+  <si>
+    <t>This particular hotel is very near a customer that I visit.  It is a new hotel; the rooms are clean and the staff is particularly friendly.  There are many decent restaurants within easy 5-10 minute driving distance, and the hotel has it's own restaurant also.  I've had breakfast there, and it was excellent.  Breakfast is not included in your hotel stay.  This restaurant also serves lunch and dinner, and alcoholic beverages, also.  It's my go-to hotel when I'm in Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Greg M, General Manager at Courtyard Houston NW/290 Corridor, responded to this reviewResponded May 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2017</t>
+  </si>
+  <si>
+    <t>This particular hotel is very near a customer that I visit.  It is a new hotel; the rooms are clean and the staff is particularly friendly.  There are many decent restaurants within easy 5-10 minute driving distance, and the hotel has it's own restaurant also.  I've had breakfast there, and it was excellent.  Breakfast is not included in your hotel stay.  This restaurant also serves lunch and dinner, and alcoholic beverages, also.  It's my go-to hotel when I'm in Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r483474372-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>483474372</t>
+  </si>
+  <si>
+    <t>05/11/2017</t>
+  </si>
+  <si>
+    <t>Awesome hospitality</t>
+  </si>
+  <si>
+    <t>So the restaurant isn't open at lunch.  Had I known, I would've grabbed something at the airport.  David was on his way out the door, but came back in to fix something especially for me!  Above &amp; beyond!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>GuestRelationsHoucn, Front Office Manager at Courtyard Houston NW/290 Corridor, responded to this reviewResponded May 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 12, 2017</t>
+  </si>
+  <si>
+    <t>So the restaurant isn't open at lunch.  Had I known, I would've grabbed something at the airport.  David was on his way out the door, but came back in to fix something especially for me!  Above &amp; beyond!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r480389889-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>480389889</t>
+  </si>
+  <si>
+    <t>04/30/2017</t>
+  </si>
+  <si>
+    <t>Roadtrip from San Antonio/overnight stay</t>
+  </si>
+  <si>
+    <t>We visit Houston every couple of months on a whim roadtrip. We typically stay wherever the cheapest/highest rated hotel is on Hotels.com. I believe this hotel had a 4.6/5 on Hotels.com and ran for a total of $75 total. The score definitely seemed correct. For the price, this hotel was amazing! We arrived around 9:30 pm on a Saturday night and were checked in promptly. There was a wedding going on in the hotel, so we were initially concerned about noise -- no noise heard at all once up in our room.  We had a room on the fourth floor with a view of the terrace outside. Our room was nearly immaculate and very modern. The beds were somewhat comfortable. The bathroom was spacious and had a really nice shower. We did not take advantage of the bistro in the lobby. One suggestion would be to have free breakfast every morning. This is a hotel we will keep on our list to stay in the future. MoreShow less</t>
+  </si>
+  <si>
+    <t>GuestRelationsHoucn, Front Office Manager at Courtyard Houston NW/290 Corridor, responded to this reviewResponded May 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 4, 2017</t>
+  </si>
+  <si>
+    <t>We visit Houston every couple of months on a whim roadtrip. We typically stay wherever the cheapest/highest rated hotel is on Hotels.com. I believe this hotel had a 4.6/5 on Hotels.com and ran for a total of $75 total. The score definitely seemed correct. For the price, this hotel was amazing! We arrived around 9:30 pm on a Saturday night and were checked in promptly. There was a wedding going on in the hotel, so we were initially concerned about noise -- no noise heard at all once up in our room.  We had a room on the fourth floor with a view of the terrace outside. Our room was nearly immaculate and very modern. The beds were somewhat comfortable. The bathroom was spacious and had a really nice shower. We did not take advantage of the bistro in the lobby. One suggestion would be to have free breakfast every morning. This is a hotel we will keep on our list to stay in the future. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r465071900-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>465071900</t>
+  </si>
+  <si>
+    <t>03/06/2017</t>
+  </si>
+  <si>
+    <t>Very nicely done</t>
+  </si>
+  <si>
+    <t>I stayed at this Courtyard for 3 nights while in town for business.
+I was very warmly greeted at the front desk. I received the room I reserved, a king bed room on the third floor. The room included a comfy king bed, along with a retro chic couch. There was a small refrigerator and microwave inside a cupboard. The bathroom had a large zero entry shower, along with a make-up mirror (always welcome for a female traveler).
+The housekeeping was very good, and I was kept well supplied with towels.
+I used the fitness center every morning (luckily, it is open 24/7). There are 2 treadmills, a Precor elliptical and bike, along with free weights and a universal type machine. There were always plenty of towels, sanitizing wipes, and water. The elliptical and bike were in good shape, always a pleasant surprise. It would be great if they could add one more piece of cardio equipment, as during one morning workout every piece of cardio was being used. 
+I actually remembered to bring my bathing suit, but never got a chance to swim. The pool is very small, though, and there is no Jacuzzi.
+I had dinner here two nights and got the chicken ciabatta sandwich and then the turkey reuben. Both were very tasty. The bar service was also good. Normally, I try to go out for dinner, but with the construction and traffic, I couldn't manage to...I stayed at this Courtyard for 3 nights while in town for business.I was very warmly greeted at the front desk. I received the room I reserved, a king bed room on the third floor. The room included a comfy king bed, along with a retro chic couch. There was a small refrigerator and microwave inside a cupboard. The bathroom had a large zero entry shower, along with a make-up mirror (always welcome for a female traveler).The housekeeping was very good, and I was kept well supplied with towels.I used the fitness center every morning (luckily, it is open 24/7). There are 2 treadmills, a Precor elliptical and bike, along with free weights and a universal type machine. There were always plenty of towels, sanitizing wipes, and water. The elliptical and bike were in good shape, always a pleasant surprise. It would be great if they could add one more piece of cardio equipment, as during one morning workout every piece of cardio was being used. I actually remembered to bring my bathing suit, but never got a chance to swim. The pool is very small, though, and there is no Jacuzzi.I had dinner here two nights and got the chicken ciabatta sandwich and then the turkey reuben. Both were very tasty. The bar service was also good. Normally, I try to go out for dinner, but with the construction and traffic, I couldn't manage to gather enough energy to fight with traffic when I could relax and have dinner at the hotel. There was plenty of free parking on site.I would not hesitate to stay here on future visits.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Greg M, General Manager at Courtyard Houston NW/290 Corridor, responded to this reviewResponded May 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 15, 2017</t>
+  </si>
+  <si>
+    <t>I stayed at this Courtyard for 3 nights while in town for business.
+I was very warmly greeted at the front desk. I received the room I reserved, a king bed room on the third floor. The room included a comfy king bed, along with a retro chic couch. There was a small refrigerator and microwave inside a cupboard. The bathroom had a large zero entry shower, along with a make-up mirror (always welcome for a female traveler).
+The housekeeping was very good, and I was kept well supplied with towels.
+I used the fitness center every morning (luckily, it is open 24/7). There are 2 treadmills, a Precor elliptical and bike, along with free weights and a universal type machine. There were always plenty of towels, sanitizing wipes, and water. The elliptical and bike were in good shape, always a pleasant surprise. It would be great if they could add one more piece of cardio equipment, as during one morning workout every piece of cardio was being used. 
+I actually remembered to bring my bathing suit, but never got a chance to swim. The pool is very small, though, and there is no Jacuzzi.
+I had dinner here two nights and got the chicken ciabatta sandwich and then the turkey reuben. Both were very tasty. The bar service was also good. Normally, I try to go out for dinner, but with the construction and traffic, I couldn't manage to...I stayed at this Courtyard for 3 nights while in town for business.I was very warmly greeted at the front desk. I received the room I reserved, a king bed room on the third floor. The room included a comfy king bed, along with a retro chic couch. There was a small refrigerator and microwave inside a cupboard. The bathroom had a large zero entry shower, along with a make-up mirror (always welcome for a female traveler).The housekeeping was very good, and I was kept well supplied with towels.I used the fitness center every morning (luckily, it is open 24/7). There are 2 treadmills, a Precor elliptical and bike, along with free weights and a universal type machine. There were always plenty of towels, sanitizing wipes, and water. The elliptical and bike were in good shape, always a pleasant surprise. It would be great if they could add one more piece of cardio equipment, as during one morning workout every piece of cardio was being used. I actually remembered to bring my bathing suit, but never got a chance to swim. The pool is very small, though, and there is no Jacuzzi.I had dinner here two nights and got the chicken ciabatta sandwich and then the turkey reuben. Both were very tasty. The bar service was also good. Normally, I try to go out for dinner, but with the construction and traffic, I couldn't manage to gather enough energy to fight with traffic when I could relax and have dinner at the hotel. There was plenty of free parking on site.I would not hesitate to stay here on future visits.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r464105586-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>464105586</t>
+  </si>
+  <si>
+    <t>03/02/2017</t>
+  </si>
+  <si>
+    <t>Awesome Place</t>
+  </si>
+  <si>
+    <t>I arrived about 9:30 PM and the front desk clerk was very helpful &amp; friendly. I especially like the fact that most Courtyard properties have their Bistro open till 10 PM. I was hungry, thirsty and tired when I arrived and I was able to get a nice sandwich and a drink and then head upstairs to a very nice room and went to bed. Great place and great staff!MoreShow less</t>
+  </si>
+  <si>
+    <t>Greg M, General Manager at Courtyard Houston NW/290 Corridor, responded to this reviewResponded August 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 21, 2017</t>
+  </si>
+  <si>
+    <t>I arrived about 9:30 PM and the front desk clerk was very helpful &amp; friendly. I especially like the fact that most Courtyard properties have their Bistro open till 10 PM. I was hungry, thirsty and tired when I arrived and I was able to get a nice sandwich and a drink and then head upstairs to a very nice room and went to bed. Great place and great staff!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r458585671-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>458585671</t>
+  </si>
+  <si>
+    <t>02/10/2017</t>
+  </si>
+  <si>
+    <t>nice modern hotel</t>
+  </si>
+  <si>
+    <t>The hotel is nice modern and new hotel that is clean and well staffed. The down side is that the hotel was out of almost everything the first night of our stay. The construction and traffic noise is loud on the north side of the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>MarcusHOUCN, Operations Supervisor at Courtyard Houston NW/290 Corridor, responded to this reviewResponded February 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 13, 2017</t>
+  </si>
+  <si>
+    <t>The hotel is nice modern and new hotel that is clean and well staffed. The down side is that the hotel was out of almost everything the first night of our stay. The construction and traffic noise is loud on the north side of the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r440941285-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>440941285</t>
+  </si>
+  <si>
+    <t>11/29/2016</t>
+  </si>
+  <si>
+    <t>McClure Vow Renewal Celebration</t>
+  </si>
+  <si>
+    <t>Carren and team - Thanks for everything you did to make our Vow Renewal a success. I truly appreciate you and the entire staff for the kindness and exceptional customer service you showed during the planning and day of my Vow Renewal.The hotel and rooms are absolutely beautiful.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Angel Cunningha... W, Assistant General Manager at Courtyard Houston NW/290 Corridor, responded to this reviewResponded December 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 9, 2016</t>
+  </si>
+  <si>
+    <t>Carren and team - Thanks for everything you did to make our Vow Renewal a success. I truly appreciate you and the entire staff for the kindness and exceptional customer service you showed during the planning and day of my Vow Renewal.The hotel and rooms are absolutely beautiful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r431629499-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>431629499</t>
+  </si>
+  <si>
+    <t>10/25/2016</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>Nice, quiet, updated rooms. Food is kind of spendy,but there are many places to eat close.  Great staff. Don't worry about being close to the freeway, the rooms are quiet. Rooms are cozy with new linens.  MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Carren W, Sales Manager at Courtyard Houston NW/290 Corridor, responded to this reviewResponded November 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 11, 2016</t>
+  </si>
+  <si>
+    <t>Nice, quiet, updated rooms. Food is kind of spendy,but there are many places to eat close.  Great staff. Don't worry about being close to the freeway, the rooms are quiet. Rooms are cozy with new linens.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r431380300-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>431380300</t>
+  </si>
+  <si>
+    <t>10/24/2016</t>
+  </si>
+  <si>
+    <t>Don't judge a book by its cover..</t>
+  </si>
+  <si>
+    <t>This facility is deceiving in that the exterior and neighborhood do not signal such a well renovated facility and staff that is truly committed to customer satisfaction.The lobby and rooms have been updated and it wasn't the superficialrenovation.  Rooms are well late out and was nice and clean.Staff was very attentive and accommodating.SMoreShow less</t>
+  </si>
+  <si>
+    <t>This facility is deceiving in that the exterior and neighborhood do not signal such a well renovated facility and staff that is truly committed to customer satisfaction.The lobby and rooms have been updated and it wasn't the superficialrenovation.  Rooms are well late out and was nice and clean.Staff was very attentive and accommodating.SMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r419989007-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>419989007</t>
+  </si>
+  <si>
+    <t>09/18/2016</t>
+  </si>
+  <si>
+    <t>Wonderful</t>
+  </si>
+  <si>
+    <t>Chrystal (sorry if I misspelled your name) you really made my stay great. This hotel is gorgeous in every which way. The interior design was SPECTACULAR!! If you are in town don't matter what for stay here. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Angel C, Manager at Courtyard Houston NW/290 Corridor, responded to this reviewResponded September 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 25, 2016</t>
+  </si>
+  <si>
+    <t>Chrystal (sorry if I misspelled your name) you really made my stay great. This hotel is gorgeous in every which way. The interior design was SPECTACULAR!! If you are in town don't matter what for stay here. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r414952112-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>414952112</t>
+  </si>
+  <si>
+    <t>09/05/2016</t>
+  </si>
+  <si>
+    <t>Great property for business travel</t>
+  </si>
+  <si>
+    <t>Exceptionally well-trained staff. Virtually every person I interacted with made me feel welcome, from the front desk people, to the restaurant, night desk guy, housekeeping. I noticed that the managers pitched in to facilitate quick service at the restaurant when it was busy. The managers clearly lead by example.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Angel C, General Manager at Courtyard Houston NW/290 Corridor, responded to this reviewResponded September 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 6, 2016</t>
+  </si>
+  <si>
+    <t>Exceptionally well-trained staff. Virtually every person I interacted with made me feel welcome, from the front desk people, to the restaurant, night desk guy, housekeeping. I noticed that the managers pitched in to facilitate quick service at the restaurant when it was busy. The managers clearly lead by example.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r412956329-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>412956329</t>
+  </si>
+  <si>
+    <t>08/30/2016</t>
+  </si>
+  <si>
+    <t>Loved this place!</t>
+  </si>
+  <si>
+    <t>Your Survey Comments: The people who work here are always cordial and congenial. They try to accommodate the customers. And they are patient. I feel comfortable when I stay here.  This the third time I stay here and everyone is really awesome. I like coming to a beautiful hotel that is kept impeccably and to be greeted with smiles and kindness after dealing with difficult people and in the heat of the day makes it a joy.  I would highly recommend this location and Kudos to Marriott. I have been loyal to this chain since the 1980's and it is for this very reason.  Thanks Again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Angel C, Manager at Courtyard Houston NW/290 Corridor, responded to this reviewResponded September 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 1, 2016</t>
+  </si>
+  <si>
+    <t>Your Survey Comments: The people who work here are always cordial and congenial. They try to accommodate the customers. And they are patient. I feel comfortable when I stay here.  This the third time I stay here and everyone is really awesome. I like coming to a beautiful hotel that is kept impeccably and to be greeted with smiles and kindness after dealing with difficult people and in the heat of the day makes it a joy.  I would highly recommend this location and Kudos to Marriott. I have been loyal to this chain since the 1980's and it is for this very reason.  Thanks Again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r404266011-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>404266011</t>
+  </si>
+  <si>
+    <t>08/11/2016</t>
+  </si>
+  <si>
+    <t>Perfect new hotel!</t>
+  </si>
+  <si>
+    <t>Modern design, everything new, perfect service, a lot of parking spots. Very comfortable lounge bar in lobby. Highly recommend. Very nice lady on reception Yamiles provided good service and warm welcoming.MoreShow less</t>
+  </si>
+  <si>
+    <t>Angel C, Manager at Courtyard Houston NW/290 Corridor, responded to this reviewResponded August 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 23, 2016</t>
+  </si>
+  <si>
+    <t>Modern design, everything new, perfect service, a lot of parking spots. Very comfortable lounge bar in lobby. Highly recommend. Very nice lady on reception Yamiles provided good service and warm welcoming.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r402595642-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>402595642</t>
+  </si>
+  <si>
+    <t>08/07/2016</t>
+  </si>
+  <si>
+    <t>Great stay for us</t>
+  </si>
+  <si>
+    <t>We spent one night there twice in the last two weeks before and after flights and had no issues. Kind of busy on weekends with the conference rooms being used for meetings or parties but overall, great stay for the price. The afternoon manager (sadly forgot her name but think it was Yeselda) was amazing!!! She really assisted us. Will definitely stay here againMoreShow less</t>
+  </si>
+  <si>
+    <t>Angel C, Manager at Courtyard Houston NW/290 Corridor, responded to this reviewResponded August 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 9, 2016</t>
+  </si>
+  <si>
+    <t>We spent one night there twice in the last two weeks before and after flights and had no issues. Kind of busy on weekends with the conference rooms being used for meetings or parties but overall, great stay for the price. The afternoon manager (sadly forgot her name but think it was Yeselda) was amazing!!! She really assisted us. Will definitely stay here againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r393343387-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>393343387</t>
+  </si>
+  <si>
+    <t>07/16/2016</t>
+  </si>
+  <si>
+    <t>Wonderful refuge from Tx heat</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at this hotel while in Houston to see our grandson play in a baseball tournament.  The hotel was very nice and we were immediately impressed. Angel, the manager on duty, was wonderful and so helpful. She gave directions to the restaurant and the ball field. Due to road construction in the area sometimes the gps was not correct. The hotel first floor was recently redone because of flooding 18 months ago.  The rooms are so nice with a new look. The curvy couch was a hit.  Will definitely stay here again if in this part of Houston. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Angel C, Manager at Courtyard Houston NW/290 Corridor, responded to this reviewResponded July 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 25, 2016</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at this hotel while in Houston to see our grandson play in a baseball tournament.  The hotel was very nice and we were immediately impressed. Angel, the manager on duty, was wonderful and so helpful. She gave directions to the restaurant and the ball field. Due to road construction in the area sometimes the gps was not correct. The hotel first floor was recently redone because of flooding 18 months ago.  The rooms are so nice with a new look. The curvy couch was a hit.  Will definitely stay here again if in this part of Houston. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r369875836-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>369875836</t>
+  </si>
+  <si>
+    <t>05/03/2016</t>
+  </si>
+  <si>
+    <t>Good location, friendly staff, poor management.</t>
+  </si>
+  <si>
+    <t>I've been staying here every week for 7 months, 4-5 days a week.. I know several of the other regulars and have become friends with many of the staff.. I wont go into deep details, as others have covered all of the basics.. What I will say is, you probably wont find a more personable staff anywhere - Jessica &amp; Deonica at the front desk are the best!  They take care of everyone with a smile and warm caring personality.  There are several other great people, but the front desk has such a huge impact on a stay, I think its worth mentioning them by name...this way you know who to look for. :)
+The management however needs some work.. I won't bast the GM by name, but suffice to say, as one of their top 50 guests, you'd think i'd get a quick hello or maybe even know my name?  I'm not the 'Mr Important' type, in fact I pretty much keep to myself, but damn.. the housekeepers and maintenance staff (all great) are more in-tune than the GM is.. maybe its because I'm not an older Gent, in a suit? 
+Lastly, there aren't a lot of good places to stay in this area, and Houston traffic sucks, so this is a good option for Marriott members who need to be out in Jersey Village.. There is a new Residence Inn down on Clay that will be opening soon...I've been staying here every week for 7 months, 4-5 days a week.. I know several of the other regulars and have become friends with many of the staff.. I wont go into deep details, as others have covered all of the basics.. What I will say is, you probably wont find a more personable staff anywhere - Jessica &amp; Deonica at the front desk are the best!  They take care of everyone with a smile and warm caring personality.  There are several other great people, but the front desk has such a huge impact on a stay, I think its worth mentioning them by name...this way you know who to look for. :)The management however needs some work.. I won't bast the GM by name, but suffice to say, as one of their top 50 guests, you'd think i'd get a quick hello or maybe even know my name?  I'm not the 'Mr Important' type, in fact I pretty much keep to myself, but damn.. the housekeepers and maintenance staff (all great) are more in-tune than the GM is.. maybe its because I'm not an older Gent, in a suit? Lastly, there aren't a lot of good places to stay in this area, and Houston traffic sucks, so this is a good option for Marriott members who need to be out in Jersey Village.. There is a new Residence Inn down on Clay that will be opening soon too..yay!The Bistro is meh, the burger is terrible, but the checkin wings are pretty good.   Most of the breakfast options are good too.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Angel C, Manager at Courtyard Houston NW/290 Corridor, responded to this reviewResponded May 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 24, 2016</t>
+  </si>
+  <si>
+    <t>I've been staying here every week for 7 months, 4-5 days a week.. I know several of the other regulars and have become friends with many of the staff.. I wont go into deep details, as others have covered all of the basics.. What I will say is, you probably wont find a more personable staff anywhere - Jessica &amp; Deonica at the front desk are the best!  They take care of everyone with a smile and warm caring personality.  There are several other great people, but the front desk has such a huge impact on a stay, I think its worth mentioning them by name...this way you know who to look for. :)
+The management however needs some work.. I won't bast the GM by name, but suffice to say, as one of their top 50 guests, you'd think i'd get a quick hello or maybe even know my name?  I'm not the 'Mr Important' type, in fact I pretty much keep to myself, but damn.. the housekeepers and maintenance staff (all great) are more in-tune than the GM is.. maybe its because I'm not an older Gent, in a suit? 
+Lastly, there aren't a lot of good places to stay in this area, and Houston traffic sucks, so this is a good option for Marriott members who need to be out in Jersey Village.. There is a new Residence Inn down on Clay that will be opening soon...I've been staying here every week for 7 months, 4-5 days a week.. I know several of the other regulars and have become friends with many of the staff.. I wont go into deep details, as others have covered all of the basics.. What I will say is, you probably wont find a more personable staff anywhere - Jessica &amp; Deonica at the front desk are the best!  They take care of everyone with a smile and warm caring personality.  There are several other great people, but the front desk has such a huge impact on a stay, I think its worth mentioning them by name...this way you know who to look for. :)The management however needs some work.. I won't bast the GM by name, but suffice to say, as one of their top 50 guests, you'd think i'd get a quick hello or maybe even know my name?  I'm not the 'Mr Important' type, in fact I pretty much keep to myself, but damn.. the housekeepers and maintenance staff (all great) are more in-tune than the GM is.. maybe its because I'm not an older Gent, in a suit? Lastly, there aren't a lot of good places to stay in this area, and Houston traffic sucks, so this is a good option for Marriott members who need to be out in Jersey Village.. There is a new Residence Inn down on Clay that will be opening soon too..yay!The Bistro is meh, the burger is terrible, but the checkin wings are pretty good.   Most of the breakfast options are good too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r367774806-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>367774806</t>
+  </si>
+  <si>
+    <t>04/26/2016</t>
+  </si>
+  <si>
+    <t>Above and beyond customer service</t>
+  </si>
+  <si>
+    <t>I arrived in town a few days after a large storm , Even though work was being done to the hotel as a result . The staff was very accommodating  , The entire staff greeted me when I came in contact with them and would always ask how is my stay and if there is anything they could do for me . The hotel was only a few exits from a great Restaurants  district and was much more affordable than the hotels around the restaurant  .MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Julie A, Manager at Courtyard Houston NW/290 Corridor, responded to this reviewResponded May 24, 2016</t>
+  </si>
+  <si>
+    <t>I arrived in town a few days after a large storm , Even though work was being done to the hotel as a result . The staff was very accommodating  , The entire staff greeted me when I came in contact with them and would always ask how is my stay and if there is anything they could do for me . The hotel was only a few exits from a great Restaurants  district and was much more affordable than the hotels around the restaurant  .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r362383842-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>362383842</t>
+  </si>
+  <si>
+    <t>04/07/2016</t>
+  </si>
+  <si>
+    <t>Not what I expected</t>
+  </si>
+  <si>
+    <t>I was originally going to stay at this Courtyard for 4 nights for the Final Four.  I arrived after midnight. From what I saw, there was nothing around the hotel.  I went inside and found a half asleep staff member behind the front desk.  After checking in, I asked if there was anything open nearby where I could get some food.  He stated that he did live near nearby but knew there was a McDonald about a mile down the road.  With all the road construction going on around the hotel, it was difficult at night to see where on the road should I be driving.I'm a Marriott Gold Elite status member and the room they gave me was right next to the elevator.  I could hear noise from the elevator every time someone used it.  The walls in the room were paper thin. I could hear noise up and down the hallway.  The hotel plays music in the hallway, and I could hear that all night.  I got very little sleep.  So, the next morning, I got up and checked out.I also did not like that my room did not have any place for me to hang my clothes.  No closet or cabinet.MoreShow less</t>
+  </si>
+  <si>
+    <t>Julie A, General Manager at Courtyard Houston NW/290 Corridor, responded to this reviewResponded April 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 11, 2016</t>
+  </si>
+  <si>
+    <t>I was originally going to stay at this Courtyard for 4 nights for the Final Four.  I arrived after midnight. From what I saw, there was nothing around the hotel.  I went inside and found a half asleep staff member behind the front desk.  After checking in, I asked if there was anything open nearby where I could get some food.  He stated that he did live near nearby but knew there was a McDonald about a mile down the road.  With all the road construction going on around the hotel, it was difficult at night to see where on the road should I be driving.I'm a Marriott Gold Elite status member and the room they gave me was right next to the elevator.  I could hear noise from the elevator every time someone used it.  The walls in the room were paper thin. I could hear noise up and down the hallway.  The hotel plays music in the hallway, and I could hear that all night.  I got very little sleep.  So, the next morning, I got up and checked out.I also did not like that my room did not have any place for me to hang my clothes.  No closet or cabinet.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r356638472-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>356638472</t>
+  </si>
+  <si>
+    <t>03/18/2016</t>
+  </si>
+  <si>
+    <t>Stayed a week and had a nice stay !!</t>
+  </si>
+  <si>
+    <t>This location is a little ways away from eating and shopping.  Not much in driving distance.  As for the stay, the staff was very nice and friendly.  The room was a standard Courtyard and not much stands out as good or bad.  It was a comfortable stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Julie A, General Manager at Courtyard Houston NW/290 Corridor, responded to this reviewResponded March 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 21, 2016</t>
+  </si>
+  <si>
+    <t>This location is a little ways away from eating and shopping.  Not much in driving distance.  As for the stay, the staff was very nice and friendly.  The room was a standard Courtyard and not much stands out as good or bad.  It was a comfortable stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r350960334-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>350960334</t>
+  </si>
+  <si>
+    <t>02/25/2016</t>
+  </si>
+  <si>
+    <t>Great hotel!</t>
+  </si>
+  <si>
+    <t>I stayed here for three nights while attending a nearby training.  The rooms are comfortable and modern.  The staff was very helpful.  The best were comfortable and the linens were nice. I will stay here again if I attend training in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Julie A, General Manager at Courtyard Houston NW/290 Corridor, responded to this reviewResponded March 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 2, 2016</t>
+  </si>
+  <si>
+    <t>I stayed here for three nights while attending a nearby training.  The rooms are comfortable and modern.  The staff was very helpful.  The best were comfortable and the linens were nice. I will stay here again if I attend training in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r335504066-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>335504066</t>
+  </si>
+  <si>
+    <t>12/28/2015</t>
+  </si>
+  <si>
+    <t>Cozy and Pleasant</t>
+  </si>
+  <si>
+    <t>This is a very cozy newer Courtyard hotel located right by highway US 290, about 20 minutes away from the downtown area. I had a wonderful stay at this Courtyard location with my wife, it is newly built (like stated), very clean and good design. It offers a great exterior/outdoor setting and the staff is friendly and courteous. They are generous about check-out time as we had to check-out a bit later than the scheduled time without any hassles or any questions asked. Wifi works great, fast and no network or connectivity issues. The hotel is good for business and family visit alike. Would return here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Julie A, General Manager at Courtyard Houston NW/290 Corridor, responded to this reviewResponded January 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 1, 2016</t>
+  </si>
+  <si>
+    <t>This is a very cozy newer Courtyard hotel located right by highway US 290, about 20 minutes away from the downtown area. I had a wonderful stay at this Courtyard location with my wife, it is newly built (like stated), very clean and good design. It offers a great exterior/outdoor setting and the staff is friendly and courteous. They are generous about check-out time as we had to check-out a bit later than the scheduled time without any hassles or any questions asked. Wifi works great, fast and no network or connectivity issues. The hotel is good for business and family visit alike. Would return here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r294412427-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>294412427</t>
+  </si>
+  <si>
+    <t>07/31/2015</t>
+  </si>
+  <si>
+    <t>Not What You Expect from a Courtyard</t>
+  </si>
+  <si>
+    <t>I booked a block of rooms for a company meeting at this hotel. I arrived early to ensure everything was in order. When I arrived, I did not have a room, another guest's room had been cancelled, and the hotel told me they were sold out. I gave them my confirmation number and they said they would see what they could do. They got me a room, but told me I would need to speak with the night manager regarding the other room. We were able to get a room for the other guest, but had to jump through hoops for something that was not our fault. 
+The cafe must have had all new people - they could not seem to figure out how to make drinks - coffee or otherwise. After the first night, we opted to find another place to eat. 
+After we left, I checked my credit card statement and had extra charges. (One room that was cancelled by the hotel, and another for a guest that had been there and offered their credit card, but they said it was not needed.)
+It was just one thing after another at this hotel. While everything was handled, it was not worth the headache. They continually blamed the person that was no longer with the company and never offered me a real apology for the headache. 
+The rooms were nice, but that's about it.
+I will be going back...I booked a block of rooms for a company meeting at this hotel. I arrived early to ensure everything was in order. When I arrived, I did not have a room, another guest's room had been cancelled, and the hotel told me they were sold out. I gave them my confirmation number and they said they would see what they could do. They got me a room, but told me I would need to speak with the night manager regarding the other room. We were able to get a room for the other guest, but had to jump through hoops for something that was not our fault. The cafe must have had all new people - they could not seem to figure out how to make drinks - coffee or otherwise. After the first night, we opted to find another place to eat. After we left, I checked my credit card statement and had extra charges. (One room that was cancelled by the hotel, and another for a guest that had been there and offered their credit card, but they said it was not needed.)It was just one thing after another at this hotel. While everything was handled, it was not worth the headache. They continually blamed the person that was no longer with the company and never offered me a real apology for the headache. The rooms were nice, but that's about it.I will be going back to the Hilton Garden the next time I am in Houston - not worth the headache.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Julie A, General Manager at Courtyard Houston NW/290 Corridor, responded to this reviewResponded September 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 4, 2015</t>
+  </si>
+  <si>
+    <t>I booked a block of rooms for a company meeting at this hotel. I arrived early to ensure everything was in order. When I arrived, I did not have a room, another guest's room had been cancelled, and the hotel told me they were sold out. I gave them my confirmation number and they said they would see what they could do. They got me a room, but told me I would need to speak with the night manager regarding the other room. We were able to get a room for the other guest, but had to jump through hoops for something that was not our fault. 
+The cafe must have had all new people - they could not seem to figure out how to make drinks - coffee or otherwise. After the first night, we opted to find another place to eat. 
+After we left, I checked my credit card statement and had extra charges. (One room that was cancelled by the hotel, and another for a guest that had been there and offered their credit card, but they said it was not needed.)
+It was just one thing after another at this hotel. While everything was handled, it was not worth the headache. They continually blamed the person that was no longer with the company and never offered me a real apology for the headache. 
+The rooms were nice, but that's about it.
+I will be going back...I booked a block of rooms for a company meeting at this hotel. I arrived early to ensure everything was in order. When I arrived, I did not have a room, another guest's room had been cancelled, and the hotel told me they were sold out. I gave them my confirmation number and they said they would see what they could do. They got me a room, but told me I would need to speak with the night manager regarding the other room. We were able to get a room for the other guest, but had to jump through hoops for something that was not our fault. The cafe must have had all new people - they could not seem to figure out how to make drinks - coffee or otherwise. After the first night, we opted to find another place to eat. After we left, I checked my credit card statement and had extra charges. (One room that was cancelled by the hotel, and another for a guest that had been there and offered their credit card, but they said it was not needed.)It was just one thing after another at this hotel. While everything was handled, it was not worth the headache. They continually blamed the person that was no longer with the company and never offered me a real apology for the headache. The rooms were nice, but that's about it.I will be going back to the Hilton Garden the next time I am in Houston - not worth the headache.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r289030346-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>289030346</t>
+  </si>
+  <si>
+    <t>07/14/2015</t>
+  </si>
+  <si>
+    <t>Great Property/Staff</t>
+  </si>
+  <si>
+    <t>First, as a Platinum member of Marriott Rewards, this is what I expect at each of my stays (121 thus far this year). Great new property with a friendly staff and go the extra mile to make your stay comfortable. The rooms have great space and are modern. Beds are very comfortable. Worth finding the tough location. You will be glad you did!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Julie A, General Manager at Courtyard Houston NW/290 Corridor, responded to this reviewResponded August 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 13, 2015</t>
+  </si>
+  <si>
+    <t>First, as a Platinum member of Marriott Rewards, this is what I expect at each of my stays (121 thus far this year). Great new property with a friendly staff and go the extra mile to make your stay comfortable. The rooms have great space and are modern. Beds are very comfortable. Worth finding the tough location. You will be glad you did!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r270557526-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>270557526</t>
+  </si>
+  <si>
+    <t>05/07/2015</t>
+  </si>
+  <si>
+    <t>Not a place for rest</t>
+  </si>
+  <si>
+    <t>For 2 days of a 3 night stay, the fire alarm in the hall "chirped" 24 hours a day. It was brought to the attention of the front desk twice. The alarm was on the second floor in the open area and the front desk personnel could hear it too. Very annoying sound and definitely interfere with  sleep. Then on last night, noise from the room above. Sounds like someone was jumping around the room. This went on from 11pm to 4am. Front desk said there wasn't much that could be done. In  a 3 night stay, I had less than 8 hours of sleep. Definitely will avoid this property and probably Courtyard in general. The fire alarm  issue is just a local management issue; however, the ease of sound transfer between floor is a construction issue and I will need to assume it is a flaw in the corp design. This is not a hotel to stay in if one really wants rest. More geared to marketing it's "pay for amenities" and "cosmetics." This is not a guest focused property.MoreShow less</t>
+  </si>
+  <si>
+    <t>Julie A, General Manager at Courtyard Houston NW/290 Corridor, responded to this reviewResponded May 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 13, 2015</t>
+  </si>
+  <si>
+    <t>For 2 days of a 3 night stay, the fire alarm in the hall "chirped" 24 hours a day. It was brought to the attention of the front desk twice. The alarm was on the second floor in the open area and the front desk personnel could hear it too. Very annoying sound and definitely interfere with  sleep. Then on last night, noise from the room above. Sounds like someone was jumping around the room. This went on from 11pm to 4am. Front desk said there wasn't much that could be done. In  a 3 night stay, I had less than 8 hours of sleep. Definitely will avoid this property and probably Courtyard in general. The fire alarm  issue is just a local management issue; however, the ease of sound transfer between floor is a construction issue and I will need to assume it is a flaw in the corp design. This is not a hotel to stay in if one really wants rest. More geared to marketing it's "pay for amenities" and "cosmetics." This is not a guest focused property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r257579796-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>257579796</t>
+  </si>
+  <si>
+    <t>03/03/2015</t>
+  </si>
+  <si>
+    <t>Excellent New Hotel - Beautiful</t>
+  </si>
+  <si>
+    <t>This is a beautiful Marriott Courtyard and I have enjoyed my stay thus far (2 days). The rooms are beautiful, lighting and ambiance is amazing; perfect for the business traveler. On the minus - the room could use a little more drawer space, however I am dealing with the problem and the other amentias make up for the difference.The staff is nice and caring. It seems they are still getting adjusted to serving meals in the "restaurant" but are doing okay. The outdoor area is nice, water features, places to relax and fireplace. Pool small, exercise area pretty good.All in all - highly satisfied. I would stay here again and recommend to others.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Julie A, General Manager at Courtyard Houston NW/290 Corridor, responded to this reviewResponded March 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 4, 2015</t>
+  </si>
+  <si>
+    <t>This is a beautiful Marriott Courtyard and I have enjoyed my stay thus far (2 days). The rooms are beautiful, lighting and ambiance is amazing; perfect for the business traveler. On the minus - the room could use a little more drawer space, however I am dealing with the problem and the other amentias make up for the difference.The staff is nice and caring. It seems they are still getting adjusted to serving meals in the "restaurant" but are doing okay. The outdoor area is nice, water features, places to relax and fireplace. Pool small, exercise area pretty good.All in all - highly satisfied. I would stay here again and recommend to others.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r254765762-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>254765762</t>
+  </si>
+  <si>
+    <t>02/17/2015</t>
+  </si>
+  <si>
+    <t>New Hotel with Excellent Amenities and Customer Service</t>
+  </si>
+  <si>
+    <t>I am a Marriott lifelong Platinum member and have stayed at many Courtyards over my years of business travel. This hotel is one of the nicest that I have stayed in and has all the latest that a Marriott Courtyard offers since it is only a few months old. The rooms are very nicely laid out and modern and have all the amenities that you would need. The hotel staff are very friendly and welcoming and will go "above and beyond" to ensure that your stay is comfortable and all your expectations are met. I would recommend this hotel to anyone looking for accommodations in the area.Vik S.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>I am a Marriott lifelong Platinum member and have stayed at many Courtyards over my years of business travel. This hotel is one of the nicest that I have stayed in and has all the latest that a Marriott Courtyard offers since it is only a few months old. The rooms are very nicely laid out and modern and have all the amenities that you would need. The hotel staff are very friendly and welcoming and will go "above and beyond" to ensure that your stay is comfortable and all your expectations are met. I would recommend this hotel to anyone looking for accommodations in the area.Vik S.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r254405264-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>254405264</t>
+  </si>
+  <si>
+    <t>02/15/2015</t>
+  </si>
+  <si>
+    <t>Very Nice Hotel</t>
+  </si>
+  <si>
+    <t>I recently stayed at this hotel and I must say that it was pretty nice. The color changing fountain was nice outside as well as the fireplace. Although there was construction going on with the highway, it was still a nice place to stay. The staff was very friendly, nice and helpful. My son left his BEATs by Dre headphones on the bed when we left and we did not realize it until we were on the other side of Houston. I called the hotel and spoke with the front desk to explain what had happened. They advised me that they would check with housekeeping. They didn't call me back right away, so after an hour I called again and the very helpful lady advised me that she would go up herself along with security and check the room. They called me back to advise me that housekeeping had already grabbed the linen off the bed and placed in the bin with all the other linen and that it would be about 1-2 days before they would be able to look through it all. I was okay with that, but when I got another phone call an hour later, it put a smile on my face, because the lady called me to say that they had found the headphones and she was gonna leave them upfront for me. I drove back over to pick them up and they had them...I recently stayed at this hotel and I must say that it was pretty nice. The color changing fountain was nice outside as well as the fireplace. Although there was construction going on with the highway, it was still a nice place to stay. The staff was very friendly, nice and helpful. My son left his BEATs by Dre headphones on the bed when we left and we did not realize it until we were on the other side of Houston. I called the hotel and spoke with the front desk to explain what had happened. They advised me that they would check with housekeeping. They didn't call me back right away, so after an hour I called again and the very helpful lady advised me that she would go up herself along with security and check the room. They called me back to advise me that housekeeping had already grabbed the linen off the bed and placed in the bin with all the other linen and that it would be about 1-2 days before they would be able to look through it all. I was okay with that, but when I got another phone call an hour later, it put a smile on my face, because the lady called me to say that they had found the headphones and she was gonna leave them upfront for me. I drove back over to pick them up and they had them waiting for me. I would definitely stay at this hotel again. I love the Marriott family and anytime I travel, I stay at one of these. Keep up the great work.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Julie A, General Manager at Courtyard Houston NW/290 Corridor, responded to this reviewResponded February 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 17, 2015</t>
+  </si>
+  <si>
+    <t>I recently stayed at this hotel and I must say that it was pretty nice. The color changing fountain was nice outside as well as the fireplace. Although there was construction going on with the highway, it was still a nice place to stay. The staff was very friendly, nice and helpful. My son left his BEATs by Dre headphones on the bed when we left and we did not realize it until we were on the other side of Houston. I called the hotel and spoke with the front desk to explain what had happened. They advised me that they would check with housekeeping. They didn't call me back right away, so after an hour I called again and the very helpful lady advised me that she would go up herself along with security and check the room. They called me back to advise me that housekeeping had already grabbed the linen off the bed and placed in the bin with all the other linen and that it would be about 1-2 days before they would be able to look through it all. I was okay with that, but when I got another phone call an hour later, it put a smile on my face, because the lady called me to say that they had found the headphones and she was gonna leave them upfront for me. I drove back over to pick them up and they had them...I recently stayed at this hotel and I must say that it was pretty nice. The color changing fountain was nice outside as well as the fireplace. Although there was construction going on with the highway, it was still a nice place to stay. The staff was very friendly, nice and helpful. My son left his BEATs by Dre headphones on the bed when we left and we did not realize it until we were on the other side of Houston. I called the hotel and spoke with the front desk to explain what had happened. They advised me that they would check with housekeeping. They didn't call me back right away, so after an hour I called again and the very helpful lady advised me that she would go up herself along with security and check the room. They called me back to advise me that housekeeping had already grabbed the linen off the bed and placed in the bin with all the other linen and that it would be about 1-2 days before they would be able to look through it all. I was okay with that, but when I got another phone call an hour later, it put a smile on my face, because the lady called me to say that they had found the headphones and she was gonna leave them upfront for me. I drove back over to pick them up and they had them waiting for me. I would definitely stay at this hotel again. I love the Marriott family and anytime I travel, I stay at one of these. Keep up the great work.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r243559097-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>243559097</t>
+  </si>
+  <si>
+    <t>12/08/2014</t>
+  </si>
+  <si>
+    <t>New!  Great service and hotel!</t>
+  </si>
+  <si>
+    <t>I have traveled on business and stayed at this new Courtyard several times.  What keeps me coming back is the great service, comfortable and modern room, friendly staff, great location and good food options in the Bistro.  I would recommend this hotel for the business traveler and leisure guest.  The staff go above and beyond to make you feel welcomed and I look forward to my next stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Julie A, General Manager at Courtyard Houston NW/290 Corridor, responded to this reviewResponded December 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 14, 2014</t>
+  </si>
+  <si>
+    <t>I have traveled on business and stayed at this new Courtyard several times.  What keeps me coming back is the great service, comfortable and modern room, friendly staff, great location and good food options in the Bistro.  I would recommend this hotel for the business traveler and leisure guest.  The staff go above and beyond to make you feel welcomed and I look forward to my next stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r241069396-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>241069396</t>
+  </si>
+  <si>
+    <t>11/23/2014</t>
+  </si>
+  <si>
+    <t>Lovely Hotel</t>
+  </si>
+  <si>
+    <t>This hotel is clean and stylish. The rooms were very modern and comfortable. The staff were very friendly.The food at the Bistro was lovely, I especially enjoyed the Starbucks coffee. There is a lovely courtyard at this hotel, perfect for the summer months.I would definitely recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Julie A, General Manager at Courtyard Houston NW/290 Corridor, responded to this reviewResponded November 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 24, 2014</t>
+  </si>
+  <si>
+    <t>This hotel is clean and stylish. The rooms were very modern and comfortable. The staff were very friendly.The food at the Bistro was lovely, I especially enjoyed the Starbucks coffee. There is a lovely courtyard at this hotel, perfect for the summer months.I would definitely recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r240911827-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>240911827</t>
+  </si>
+  <si>
+    <t>11/21/2014</t>
+  </si>
+  <si>
+    <t>Newly Opened Marriott Courtyard</t>
+  </si>
+  <si>
+    <t>This Courtyard was opened only a couple of months ago and has a few opening pains but was very clean and quite functional.  The hotel is right off of the highway, Route 290. There is a Bistro in the hotel that is only open about 10 hours or so a day but does offer Breakfast, Lunch and Dinner.  The room was comfortable with a couch, ottoman and a little couch table that slides underneath the edge of the couch to act as a writing table. Some of the furniture is not square or rectangle but has some angles to it.  The cupboard, above the A/C unit, and desk/drawers unit are more modern.  There is a small fridge and microwave tucked into the slanted cupboard.  The walls are not similar and have texture and colors that make it interesting.  The bathroom his modern fixtures and also has a long glass shower wall that has an opening but no door.  The only thing that I did not find was an in-room safe.  The clothes closet was hidden behind a mirrored magnetic door to allow it to blend in with the decor.  There is an outside fireplace that has a fountain with colored lights and a small inside pool and small gym with 3 treadmills and  one universal machine plus a rack of free-weights.  Beware that there is construction up and down both sides of 290 where it appears that they are working...This Courtyard was opened only a couple of months ago and has a few opening pains but was very clean and quite functional.  The hotel is right off of the highway, Route 290. There is a Bistro in the hotel that is only open about 10 hours or so a day but does offer Breakfast, Lunch and Dinner.  The room was comfortable with a couch, ottoman and a little couch table that slides underneath the edge of the couch to act as a writing table. Some of the furniture is not square or rectangle but has some angles to it.  The cupboard, above the A/C unit, and desk/drawers unit are more modern.  There is a small fridge and microwave tucked into the slanted cupboard.  The walls are not similar and have texture and colors that make it interesting.  The bathroom his modern fixtures and also has a long glass shower wall that has an opening but no door.  The only thing that I did not find was an in-room safe.  The clothes closet was hidden behind a mirrored magnetic door to allow it to blend in with the decor.  There is an outside fireplace that has a fountain with colored lights and a small inside pool and small gym with 3 treadmills and  one universal machine plus a rack of free-weights.  Beware that there is construction up and down both sides of 290 where it appears that they are working on the raised exits and entrances. This slows the traffic a bit during rush hour but not much other than that. There are plenty (30 - 40) of restaurants on both sides of 290 only a few exits away from $ - $$$.  There are 3 computers at desks in the lounge that you can use to browse the internet and a 4th stand-up only for printing boarding passes but all the others can print boarding passes too. USA Todays are free in the lounge.MoreShow less</t>
+  </si>
+  <si>
+    <t>This Courtyard was opened only a couple of months ago and has a few opening pains but was very clean and quite functional.  The hotel is right off of the highway, Route 290. There is a Bistro in the hotel that is only open about 10 hours or so a day but does offer Breakfast, Lunch and Dinner.  The room was comfortable with a couch, ottoman and a little couch table that slides underneath the edge of the couch to act as a writing table. Some of the furniture is not square or rectangle but has some angles to it.  The cupboard, above the A/C unit, and desk/drawers unit are more modern.  There is a small fridge and microwave tucked into the slanted cupboard.  The walls are not similar and have texture and colors that make it interesting.  The bathroom his modern fixtures and also has a long glass shower wall that has an opening but no door.  The only thing that I did not find was an in-room safe.  The clothes closet was hidden behind a mirrored magnetic door to allow it to blend in with the decor.  There is an outside fireplace that has a fountain with colored lights and a small inside pool and small gym with 3 treadmills and  one universal machine plus a rack of free-weights.  Beware that there is construction up and down both sides of 290 where it appears that they are working...This Courtyard was opened only a couple of months ago and has a few opening pains but was very clean and quite functional.  The hotel is right off of the highway, Route 290. There is a Bistro in the hotel that is only open about 10 hours or so a day but does offer Breakfast, Lunch and Dinner.  The room was comfortable with a couch, ottoman and a little couch table that slides underneath the edge of the couch to act as a writing table. Some of the furniture is not square or rectangle but has some angles to it.  The cupboard, above the A/C unit, and desk/drawers unit are more modern.  There is a small fridge and microwave tucked into the slanted cupboard.  The walls are not similar and have texture and colors that make it interesting.  The bathroom his modern fixtures and also has a long glass shower wall that has an opening but no door.  The only thing that I did not find was an in-room safe.  The clothes closet was hidden behind a mirrored magnetic door to allow it to blend in with the decor.  There is an outside fireplace that has a fountain with colored lights and a small inside pool and small gym with 3 treadmills and  one universal machine plus a rack of free-weights.  Beware that there is construction up and down both sides of 290 where it appears that they are working on the raised exits and entrances. This slows the traffic a bit during rush hour but not much other than that. There are plenty (30 - 40) of restaurants on both sides of 290 only a few exits away from $ - $$$.  There are 3 computers at desks in the lounge that you can use to browse the internet and a 4th stand-up only for printing boarding passes but all the others can print boarding passes too. USA Todays are free in the lounge.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1615,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1647,2783 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>63419</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>63419</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>63419</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>69</v>
+      </c>
+      <c r="X4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>63419</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" t="s">
+        <v>62</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>78</v>
+      </c>
+      <c r="X5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>63419</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>86</v>
+      </c>
+      <c r="O6" t="s">
+        <v>62</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>87</v>
+      </c>
+      <c r="X6" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>63419</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>95</v>
+      </c>
+      <c r="O7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>96</v>
+      </c>
+      <c r="X7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>63419</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J8" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8" t="s">
+        <v>102</v>
+      </c>
+      <c r="L8" t="s">
+        <v>103</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>104</v>
+      </c>
+      <c r="O8" t="s">
+        <v>62</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>105</v>
+      </c>
+      <c r="X8" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>63419</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" t="s">
+        <v>110</v>
+      </c>
+      <c r="K9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L9" t="s">
+        <v>112</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>104</v>
+      </c>
+      <c r="O9" t="s">
+        <v>62</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>105</v>
+      </c>
+      <c r="X9" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>63419</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>115</v>
+      </c>
+      <c r="J10" t="s">
+        <v>116</v>
+      </c>
+      <c r="K10" t="s">
+        <v>117</v>
+      </c>
+      <c r="L10" t="s">
+        <v>118</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>104</v>
+      </c>
+      <c r="O10" t="s">
+        <v>62</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>119</v>
+      </c>
+      <c r="X10" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>63419</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>123</v>
+      </c>
+      <c r="J11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K11" t="s">
+        <v>125</v>
+      </c>
+      <c r="L11" t="s">
+        <v>126</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>127</v>
+      </c>
+      <c r="O11" t="s">
+        <v>62</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>128</v>
+      </c>
+      <c r="X11" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>63419</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J12" t="s">
+        <v>124</v>
+      </c>
+      <c r="K12" t="s">
+        <v>133</v>
+      </c>
+      <c r="L12" t="s">
+        <v>134</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>127</v>
+      </c>
+      <c r="O12" t="s">
+        <v>62</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>128</v>
+      </c>
+      <c r="X12" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>63419</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>136</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>137</v>
+      </c>
+      <c r="J13" t="s">
+        <v>124</v>
+      </c>
+      <c r="K13" t="s">
+        <v>138</v>
+      </c>
+      <c r="L13" t="s">
+        <v>139</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>127</v>
+      </c>
+      <c r="O13" t="s">
+        <v>62</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>128</v>
+      </c>
+      <c r="X13" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>63419</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>142</v>
+      </c>
+      <c r="J14" t="s">
+        <v>143</v>
+      </c>
+      <c r="K14" t="s">
+        <v>144</v>
+      </c>
+      <c r="L14" t="s">
+        <v>145</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>146</v>
+      </c>
+      <c r="O14" t="s">
+        <v>62</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>147</v>
+      </c>
+      <c r="X14" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>63419</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>151</v>
+      </c>
+      <c r="J15" t="s">
+        <v>152</v>
+      </c>
+      <c r="K15" t="s">
+        <v>153</v>
+      </c>
+      <c r="L15" t="s">
+        <v>154</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>146</v>
+      </c>
+      <c r="O15" t="s">
+        <v>62</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>155</v>
+      </c>
+      <c r="X15" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>63419</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>158</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>159</v>
+      </c>
+      <c r="J16" t="s">
+        <v>160</v>
+      </c>
+      <c r="K16" t="s">
+        <v>161</v>
+      </c>
+      <c r="L16" t="s">
+        <v>162</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>146</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>163</v>
+      </c>
+      <c r="X16" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>63419</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>166</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>167</v>
+      </c>
+      <c r="J17" t="s">
+        <v>168</v>
+      </c>
+      <c r="K17" t="s">
+        <v>169</v>
+      </c>
+      <c r="L17" t="s">
+        <v>170</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>171</v>
+      </c>
+      <c r="O17" t="s">
+        <v>62</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>172</v>
+      </c>
+      <c r="X17" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>63419</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>175</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>176</v>
+      </c>
+      <c r="J18" t="s">
+        <v>177</v>
+      </c>
+      <c r="K18" t="s">
+        <v>178</v>
+      </c>
+      <c r="L18" t="s">
+        <v>179</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>171</v>
+      </c>
+      <c r="O18" t="s">
+        <v>62</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>180</v>
+      </c>
+      <c r="X18" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>63419</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>183</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>184</v>
+      </c>
+      <c r="J19" t="s">
+        <v>185</v>
+      </c>
+      <c r="K19" t="s">
+        <v>186</v>
+      </c>
+      <c r="L19" t="s">
+        <v>187</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>188</v>
+      </c>
+      <c r="O19" t="s">
+        <v>62</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>189</v>
+      </c>
+      <c r="X19" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>63419</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>192</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>193</v>
+      </c>
+      <c r="J20" t="s">
+        <v>194</v>
+      </c>
+      <c r="K20" t="s">
+        <v>195</v>
+      </c>
+      <c r="L20" t="s">
+        <v>196</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>197</v>
+      </c>
+      <c r="O20" t="s">
+        <v>198</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>199</v>
+      </c>
+      <c r="X20" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>63419</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>202</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>203</v>
+      </c>
+      <c r="J21" t="s">
+        <v>204</v>
+      </c>
+      <c r="K21" t="s">
+        <v>205</v>
+      </c>
+      <c r="L21" t="s">
+        <v>206</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>207</v>
+      </c>
+      <c r="O21" t="s">
+        <v>62</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>208</v>
+      </c>
+      <c r="X21" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>63419</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>211</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>212</v>
+      </c>
+      <c r="J22" t="s">
+        <v>213</v>
+      </c>
+      <c r="K22" t="s">
+        <v>214</v>
+      </c>
+      <c r="L22" t="s">
+        <v>215</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>207</v>
+      </c>
+      <c r="O22" t="s">
+        <v>198</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>208</v>
+      </c>
+      <c r="X22" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>63419</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>217</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>218</v>
+      </c>
+      <c r="J23" t="s">
+        <v>219</v>
+      </c>
+      <c r="K23" t="s">
+        <v>220</v>
+      </c>
+      <c r="L23" t="s">
+        <v>221</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>222</v>
+      </c>
+      <c r="O23" t="s">
+        <v>223</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>224</v>
+      </c>
+      <c r="X23" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>63419</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>227</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>228</v>
+      </c>
+      <c r="J24" t="s">
+        <v>229</v>
+      </c>
+      <c r="K24" t="s">
+        <v>230</v>
+      </c>
+      <c r="L24" t="s">
+        <v>231</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>232</v>
+      </c>
+      <c r="O24" t="s">
+        <v>62</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>233</v>
+      </c>
+      <c r="X24" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>63419</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>236</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>237</v>
+      </c>
+      <c r="J25" t="s">
+        <v>238</v>
+      </c>
+      <c r="K25" t="s">
+        <v>239</v>
+      </c>
+      <c r="L25" t="s">
+        <v>240</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>232</v>
+      </c>
+      <c r="O25" t="s">
+        <v>223</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>241</v>
+      </c>
+      <c r="X25" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>63419</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>244</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>245</v>
+      </c>
+      <c r="J26" t="s">
+        <v>246</v>
+      </c>
+      <c r="K26" t="s">
+        <v>247</v>
+      </c>
+      <c r="L26" t="s">
+        <v>248</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>232</v>
+      </c>
+      <c r="O26" t="s">
+        <v>62</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>249</v>
+      </c>
+      <c r="X26" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>63419</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>252</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>253</v>
+      </c>
+      <c r="J27" t="s">
+        <v>254</v>
+      </c>
+      <c r="K27" t="s">
+        <v>255</v>
+      </c>
+      <c r="L27" t="s">
+        <v>256</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>232</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>257</v>
+      </c>
+      <c r="X27" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>63419</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>260</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>261</v>
+      </c>
+      <c r="J28" t="s">
+        <v>262</v>
+      </c>
+      <c r="K28" t="s">
+        <v>263</v>
+      </c>
+      <c r="L28" t="s">
+        <v>264</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>265</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>266</v>
+      </c>
+      <c r="X28" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>63419</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>269</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>270</v>
+      </c>
+      <c r="J29" t="s">
+        <v>271</v>
+      </c>
+      <c r="K29" t="s">
+        <v>272</v>
+      </c>
+      <c r="L29" t="s">
+        <v>273</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>274</v>
+      </c>
+      <c r="O29" t="s">
+        <v>62</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>275</v>
+      </c>
+      <c r="X29" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>63419</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>278</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>279</v>
+      </c>
+      <c r="J30" t="s">
+        <v>280</v>
+      </c>
+      <c r="K30" t="s">
+        <v>281</v>
+      </c>
+      <c r="L30" t="s">
+        <v>282</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>283</v>
+      </c>
+      <c r="O30" t="s">
+        <v>62</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>284</v>
+      </c>
+      <c r="X30" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>63419</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>286</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>287</v>
+      </c>
+      <c r="J31" t="s">
+        <v>288</v>
+      </c>
+      <c r="K31" t="s">
+        <v>289</v>
+      </c>
+      <c r="L31" t="s">
+        <v>290</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>283</v>
+      </c>
+      <c r="O31" t="s">
+        <v>223</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>291</v>
+      </c>
+      <c r="X31" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>63419</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>294</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>295</v>
+      </c>
+      <c r="J32" t="s">
+        <v>296</v>
+      </c>
+      <c r="K32" t="s">
+        <v>297</v>
+      </c>
+      <c r="L32" t="s">
+        <v>298</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>299</v>
+      </c>
+      <c r="O32" t="s">
+        <v>62</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>300</v>
+      </c>
+      <c r="X32" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>63419</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>303</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>304</v>
+      </c>
+      <c r="J33" t="s">
+        <v>305</v>
+      </c>
+      <c r="K33" t="s">
+        <v>306</v>
+      </c>
+      <c r="L33" t="s">
+        <v>307</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>299</v>
+      </c>
+      <c r="O33" t="s">
+        <v>62</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>308</v>
+      </c>
+      <c r="X33" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>63419</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>311</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>312</v>
+      </c>
+      <c r="J34" t="s">
+        <v>313</v>
+      </c>
+      <c r="K34" t="s">
+        <v>314</v>
+      </c>
+      <c r="L34" t="s">
+        <v>315</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>316</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>317</v>
+      </c>
+      <c r="X34" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>63419</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>320</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>321</v>
+      </c>
+      <c r="J35" t="s">
+        <v>322</v>
+      </c>
+      <c r="K35" t="s">
+        <v>323</v>
+      </c>
+      <c r="L35" t="s">
+        <v>324</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>325</v>
+      </c>
+      <c r="O35" t="s">
+        <v>62</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>3</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>326</v>
+      </c>
+      <c r="X35" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>63419</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>329</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>330</v>
+      </c>
+      <c r="J36" t="s">
+        <v>331</v>
+      </c>
+      <c r="K36" t="s">
+        <v>332</v>
+      </c>
+      <c r="L36" t="s">
+        <v>333</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>334</v>
+      </c>
+      <c r="O36" t="s">
+        <v>198</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>335</v>
+      </c>
+      <c r="X36" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>63419</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>338</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>339</v>
+      </c>
+      <c r="J37" t="s">
+        <v>340</v>
+      </c>
+      <c r="K37" t="s">
+        <v>341</v>
+      </c>
+      <c r="L37" t="s">
+        <v>342</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>316</v>
+      </c>
+      <c r="O37" t="s">
+        <v>223</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>2</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>343</v>
+      </c>
+      <c r="X37" t="s">
+        <v>344</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>63419</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>346</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>347</v>
+      </c>
+      <c r="J38" t="s">
+        <v>348</v>
+      </c>
+      <c r="K38" t="s">
+        <v>349</v>
+      </c>
+      <c r="L38" t="s">
+        <v>350</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>351</v>
+      </c>
+      <c r="O38" t="s">
+        <v>62</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>352</v>
+      </c>
+      <c r="X38" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>63419</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>355</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>356</v>
+      </c>
+      <c r="J39" t="s">
+        <v>357</v>
+      </c>
+      <c r="K39" t="s">
+        <v>358</v>
+      </c>
+      <c r="L39" t="s">
+        <v>359</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>360</v>
+      </c>
+      <c r="O39" t="s">
+        <v>62</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>352</v>
+      </c>
+      <c r="X39" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>63419</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>362</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>363</v>
+      </c>
+      <c r="J40" t="s">
+        <v>364</v>
+      </c>
+      <c r="K40" t="s">
+        <v>365</v>
+      </c>
+      <c r="L40" t="s">
+        <v>366</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>367</v>
+      </c>
+      <c r="O40" t="s">
+        <v>198</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>368</v>
+      </c>
+      <c r="X40" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>63419</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>371</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>372</v>
+      </c>
+      <c r="J41" t="s">
+        <v>373</v>
+      </c>
+      <c r="K41" t="s">
+        <v>374</v>
+      </c>
+      <c r="L41" t="s">
+        <v>375</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>376</v>
+      </c>
+      <c r="O41" t="s">
+        <v>62</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>377</v>
+      </c>
+      <c r="X41" t="s">
+        <v>378</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>63419</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>380</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>381</v>
+      </c>
+      <c r="J42" t="s">
+        <v>382</v>
+      </c>
+      <c r="K42" t="s">
+        <v>383</v>
+      </c>
+      <c r="L42" t="s">
+        <v>384</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>376</v>
+      </c>
+      <c r="O42" t="s">
+        <v>62</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>385</v>
+      </c>
+      <c r="X42" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>63419</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>388</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>389</v>
+      </c>
+      <c r="J43" t="s">
+        <v>390</v>
+      </c>
+      <c r="K43" t="s">
+        <v>391</v>
+      </c>
+      <c r="L43" t="s">
+        <v>392</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>376</v>
+      </c>
+      <c r="O43" t="s">
+        <v>62</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>385</v>
+      </c>
+      <c r="X43" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>393</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_151.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_151.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="640">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,102 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/08/2018</t>
+    <t>09/04/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r606700104-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>6161700</t>
+  </si>
+  <si>
+    <t>606700104</t>
+  </si>
+  <si>
+    <t>08/15/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weekend get away </t>
+  </si>
+  <si>
+    <t>My wife and I Really liked this hotel. Very nice look on the outside as well as inside. Typical Marriott chain with remarkable customer service. Had a nice easy check in. The front desk staff was upbeat and friendly. Both nights we were at the hotel there were events taking place within the ball room of hotel. I wouldn’t have know because of the great sound proof doors the rooms have kept things quiet and I was able to sleep with out any interruption. Hotel is about a 15 min drive to downtown Houston. This wasn’t a problem with me and got to my destination with ease. Not many food place or store near by but everything is a quick drive on the mapTo find what you need. Really enjoyed my stay would recommend to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Leticia G, General Manager at Courtyard Houston NW/290 Corridor, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>My wife and I Really liked this hotel. Very nice look on the outside as well as inside. Typical Marriott chain with remarkable customer service. Had a nice easy check in. The front desk staff was upbeat and friendly. Both nights we were at the hotel there were events taking place within the ball room of hotel. I wouldn’t have know because of the great sound proof doors the rooms have kept things quiet and I was able to sleep with out any interruption. Hotel is about a 15 min drive to downtown Houston. This wasn’t a problem with me and got to my destination with ease. Not many food place or store near by but everything is a quick drive on the mapTo find what you need. Really enjoyed my stay would recommend to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r600936363-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>600936363</t>
+  </si>
+  <si>
+    <t>07/29/2018</t>
+  </si>
+  <si>
+    <t>Amazing!!!!!</t>
+  </si>
+  <si>
+    <t>We went to Houston for a mini vacation with the family and booked this hotel, our experience there was absolutely amazing the customer service is just the best. Thanks to all the employees for being so friendly all the time at any time of the day. Everything was very clean and comfy the kids absolutely loved it and can’t wait to go back, they even made us stay one more night and it was totally worth it. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Leticia G, General Manager at Courtyard Houston NW/290 Corridor, responded to this reviewResponded July 30, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 30, 2018</t>
+  </si>
+  <si>
+    <t>We went to Houston for a mini vacation with the family and booked this hotel, our experience there was absolutely amazing the customer service is just the best. Thanks to all the employees for being so friendly all the time at any time of the day. Everything was very clean and comfy the kids absolutely loved it and can’t wait to go back, they even made us stay one more night and it was totally worth it. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r597949930-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>597949930</t>
+  </si>
+  <si>
+    <t>07/20/2018</t>
+  </si>
+  <si>
+    <t>Passing through</t>
+  </si>
+  <si>
+    <t>We enjoyed the clean rooms and the common areas. The bistro staff and front desk staff....super! Nice outdoor areas too. Courtyard by Marriott is our new go to now. I really enjoy the food and beverage options.MoreShow less</t>
+  </si>
+  <si>
+    <t>Leticia G, General Manager at Courtyard Houston NW/290 Corridor, responded to this reviewResponded July 21, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 21, 2018</t>
+  </si>
+  <si>
+    <t>We enjoyed the clean rooms and the common areas. The bistro staff and front desk staff....super! Nice outdoor areas too. Courtyard by Marriott is our new go to now. I really enjoy the food and beverage options.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r592033627-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>6161700</t>
-  </si>
-  <si>
     <t>592033627</t>
   </si>
   <si>
@@ -177,9 +261,6 @@
     <t>June 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>Leticia G, General Manager at Courtyard Houston NW/290 Corridor, responded to this reviewResponded July 3, 2018</t>
   </si>
   <si>
@@ -234,6 +315,57 @@
     <t>I'm a cybersecurity consultant. I booked here for a month on for a short notice trip. The Internet is required when I travel. The Internet here is third world quality. The place is nice, but there's no free breakfast, the internet is terrible, and this morning, most of my laundry didn't come back. The staff is nice and the place well appointed but for a business traveler who works long days every day while on the road, I won't be staying here again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r587621363-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>587621363</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>Poor customer service</t>
+  </si>
+  <si>
+    <t>I might not visit this hotel again. Abbie, Who hired this person? She doesn't treat you well, she acts bothered if you ask questions about the food. I definitely didn't feel welcome around her. Other Courtyards, I encounter happy employees, but this one is not and it showed each morning. Beverly and Gretta has a great personality, those two need a promotion. I am debating on whether or not to use this hotel for meetings with my company. The front desk team ,the customer service is average,but they seem new,Nivia and Christine I remember them two that helped me. I also never see anyone cleaning the hotel so not sure if I want to bring my more employees here.MoreShow less</t>
+  </si>
+  <si>
+    <t>Leticia G, General Manager at Courtyard Houston NW/290 Corridor, responded to this reviewResponded June 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 18, 2018</t>
+  </si>
+  <si>
+    <t>I might not visit this hotel again. Abbie, Who hired this person? She doesn't treat you well, she acts bothered if you ask questions about the food. I definitely didn't feel welcome around her. Other Courtyards, I encounter happy employees, but this one is not and it showed each morning. Beverly and Gretta has a great personality, those two need a promotion. I am debating on whether or not to use this hotel for meetings with my company. The front desk team ,the customer service is average,but they seem new,Nivia and Christine I remember them two that helped me. I also never see anyone cleaning the hotel so not sure if I want to bring my more employees here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r584231807-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>584231807</t>
+  </si>
+  <si>
+    <t>05/31/2018</t>
+  </si>
+  <si>
+    <t>Traveliers....this is a newer Courtyard but had several problems.</t>
+  </si>
+  <si>
+    <t>Traveliers....this is a newer Courtyard but had several problems. First it took 20 minutes to get checked in. 2nd they did not have ANY water in the pantry. 3rd the disk chair did not recline. 4th there were not towels in the Gym. 5th the coffee maker did not work. The TV selection was poor.... but the Wi Fi Speed was good!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>Leticia G, General Manager at Courtyard Houston NW/290 Corridor, responded to this reviewResponded June 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 2, 2018</t>
+  </si>
+  <si>
+    <t>Traveliers....this is a newer Courtyard but had several problems. First it took 20 minutes to get checked in. 2nd they did not have ANY water in the pantry. 3rd the disk chair did not recline. 4th there were not towels in the Gym. 5th the coffee maker did not work. The TV selection was poor.... but the Wi Fi Speed was good!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r579641610-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -249,9 +381,6 @@
     <t>Stayed a night for the first time this past week.  Property is located next to the highway, but my room faced the back and was quiet.  There are places to eat fairly close, but not within walking distance.  Room was clean and decorated nicely.  I really like the walk in shower as opposed to the old tub/shower combo.  Breakfast is typical Courtyard fare, but service was great.MoreShow less</t>
   </si>
   <si>
-    <t>May 2018</t>
-  </si>
-  <si>
     <t>Leticia G, General Manager at Courtyard Houston NW/290 Corridor, responded to this reviewResponded May 30, 2018</t>
   </si>
   <si>
@@ -315,6 +444,60 @@
     <t>I stay here quite often when working in the area.  Rooms are always clean, staff is very friendly.  The breakfast team is fantastic, Gretta and Michele are awesome.Would have gievn the highest rating, except air conditioners are very loud, may need some rework.Keep up.the great work!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r554281989-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>554281989</t>
+  </si>
+  <si>
+    <t>01/16/2018</t>
+  </si>
+  <si>
+    <t>Everything you want/need</t>
+  </si>
+  <si>
+    <t>From the moment you’re greeted to having a bite at the bistro (opens at 5:30PM) your stay here is very nice and you feel welcomed after driving for hours. I came to Houston with really bad weather, everything was/is closed, roads are blocked, but everything at this location is running like normal. The ambience in the lobby is great and staff is ready to cater to you. My room was in the 3rd floor and clean, smells good, and looks amazing. Love the decor throughout and great location if you’re next stop is in Austin. Right off the highway with great accessibility. Far enough from the Houston bustle, but close enough to go to meetings. Thank Marriott! MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>HospitalityDriven, General Manager at Courtyard Houston NW/290 Corridor, responded to this reviewResponded January 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 24, 2018</t>
+  </si>
+  <si>
+    <t>From the moment you’re greeted to having a bite at the bistro (opens at 5:30PM) your stay here is very nice and you feel welcomed after driving for hours. I came to Houston with really bad weather, everything was/is closed, roads are blocked, but everything at this location is running like normal. The ambience in the lobby is great and staff is ready to cater to you. My room was in the 3rd floor and clean, smells good, and looks amazing. Love the decor throughout and great location if you’re next stop is in Austin. Right off the highway with great accessibility. Far enough from the Houston bustle, but close enough to go to meetings. Thank Marriott! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r547100217-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>547100217</t>
+  </si>
+  <si>
+    <t>12/13/2017</t>
+  </si>
+  <si>
+    <t>Great place for a short stay</t>
+  </si>
+  <si>
+    <t>We were here for a weekend while our floor was replaced in our apartment. The place is nice and clean.  Staff friendly enough.  The front desk lady was so amazing, Ashley Molince was wonderful. My situation was super stressful and she did everything she could to make us comfortable. The only issues were pool was colder than expected and waiting for the restaurant is a dab slow.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>HospitalityDriven, General Manager at Courtyard Houston NW/290 Corridor, responded to this reviewResponded December 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 20, 2017</t>
+  </si>
+  <si>
+    <t>We were here for a weekend while our floor was replaced in our apartment. The place is nice and clean.  Staff friendly enough.  The front desk lady was so amazing, Ashley Molince was wonderful. My situation was super stressful and she did everything she could to make us comfortable. The only issues were pool was colder than expected and waiting for the restaurant is a dab slow.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r541422728-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -384,6 +567,51 @@
     <t>I have stayed here for business many times this year. The friendly staff always makes me feel like part of family. This last time however they went above and beyond. Michelle and Gretchin made special french toast for my wife and delivered it to our room. I can not express how special this was and wonderful these two employees are. This is but one of the many reasons we only stay at Marriot.Sincerely,Alan C SpeerMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r534572134-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>534572134</t>
+  </si>
+  <si>
+    <t>10/20/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My first stay </t>
+  </si>
+  <si>
+    <t>I stayed at this hotel the first time this week. It’s new and the rooms are very nice. The best of all was Jeretta and Michelle. I can’t rave enough about their customer service.  After only 1 breakfast, I came down to load my luggage and saw Jeretta at the counter. I motioned that I would be right back. By the time I got back in, my breakfast I ordered the day before was cooked, boxed and my coffee was waiting for me. She remembered what we had talked about and even remembered how I need extra extra room in my coffee for cream. Over the top! When you are away from home on business as much as I am, it’s a great feeling to have a feeling like you know someone. I hope they take great care of these ladies because the make this hotel shine. The team at the front desk were very nice too. Love the backyard courtyard. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>HospitalityDriven, Front Office Manager at Courtyard Houston NW/290 Corridor, responded to this reviewResponded October 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 23, 2017</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel the first time this week. It’s new and the rooms are very nice. The best of all was Jeretta and Michelle. I can’t rave enough about their customer service.  After only 1 breakfast, I came down to load my luggage and saw Jeretta at the counter. I motioned that I would be right back. By the time I got back in, my breakfast I ordered the day before was cooked, boxed and my coffee was waiting for me. She remembered what we had talked about and even remembered how I need extra extra room in my coffee for cream. Over the top! When you are away from home on business as much as I am, it’s a great feeling to have a feeling like you know someone. I hope they take great care of these ladies because the make this hotel shine. The team at the front desk were very nice too. Love the backyard courtyard. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r534317069-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>534317069</t>
+  </si>
+  <si>
+    <t>10/19/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Service and Hospitality </t>
+  </si>
+  <si>
+    <t>Gretta and Michelle at the cafe are the absolute best. I travel the country for business, and I have never encountered more pleasant or professional than the likes of these ladies.  These folks make a stay worth it and are reason enough to come back. And...the hotel is immaculate and professionally managed in all respects. MoreShow less</t>
+  </si>
+  <si>
+    <t>Gretta and Michelle at the cafe are the absolute best. I travel the country for business, and I have never encountered more pleasant or professional than the likes of these ladies.  These folks make a stay worth it and are reason enough to come back. And...the hotel is immaculate and professionally managed in all respects. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r514370481-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -441,6 +669,66 @@
     <t>Stayed for a quick overnight trip for work.  In the morning was greeted by the most wonderful personal staff at the Bistro.   Everyone here is so nice.  Greta made the most wonderful avocado toast breakfast, very pleasant surprise at the Courtyard! More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r509873468-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>509873468</t>
+  </si>
+  <si>
+    <t>08/07/2017</t>
+  </si>
+  <si>
+    <t>Nice stay, but not near much</t>
+  </si>
+  <si>
+    <t>I just stayed at this hotel for a business trip and enjoyed my stay.
+The hotel location is both good and bad. The good is that is is centrally located and right off the interstate. So if you are in town for business or will be bouncing around to different places around Houston, this is a good spot. This is not a place I would recommend if you are in town for vacation. There is nothing around except industry buildong. There is also a lot of mess from the ongoing highway construction. I asked if there was a good place to go for a run (a park or something along those lines) and was told there was a shopping center I could run in a few miles down. There is nothing within walking distance, no food options. You have to drive everywhere.
+The hotel is very nice. I either went under a recent renovation or is a newer hotel. The lobby is big with a cafe, business around and seating. They have a small but nice indoor pool and fitness center. There is a really nice outdoor seating area as well. Good place to relax between meeting with a book.
+The room was wonderful. The bed was comfortable and clean. The workspace was prefect. The desk was wide enough for me to spread my work out on. There was a fridge and microwave. The bathroom is large and modern. No...I just stayed at this hotel for a business trip and enjoyed my stay.The hotel location is both good and bad. The good is that is is centrally located and right off the interstate. So if you are in town for business or will be bouncing around to different places around Houston, this is a good spot. This is not a place I would recommend if you are in town for vacation. There is nothing around except industry buildong. There is also a lot of mess from the ongoing highway construction. I asked if there was a good place to go for a run (a park or something along those lines) and was told there was a shopping center I could run in a few miles down. There is nothing within walking distance, no food options. You have to drive everywhere.The hotel is very nice. I either went under a recent renovation or is a newer hotel. The lobby is big with a cafe, business around and seating. They have a small but nice indoor pool and fitness center. There is a really nice outdoor seating area as well. Good place to relax between meeting with a book.The room was wonderful. The bed was comfortable and clean. The workspace was prefect. The desk was wide enough for me to spread my work out on. There was a fridge and microwave. The bathroom is large and modern. No tub. My only knock was that it didn't seem like the floor was vacuumed very well. I found a lot of black hair on the bathroom floor and shower (I don't have black hair.)The staff was very friendly and quick to help/ answer any questions I had. If I am back in town for business, I wouldn't have a problem staying here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Greg M, General Manager at Courtyard Houston NW/290 Corridor, responded to this reviewResponded August 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 14, 2017</t>
+  </si>
+  <si>
+    <t>I just stayed at this hotel for a business trip and enjoyed my stay.
+The hotel location is both good and bad. The good is that is is centrally located and right off the interstate. So if you are in town for business or will be bouncing around to different places around Houston, this is a good spot. This is not a place I would recommend if you are in town for vacation. There is nothing around except industry buildong. There is also a lot of mess from the ongoing highway construction. I asked if there was a good place to go for a run (a park or something along those lines) and was told there was a shopping center I could run in a few miles down. There is nothing within walking distance, no food options. You have to drive everywhere.
+The hotel is very nice. I either went under a recent renovation or is a newer hotel. The lobby is big with a cafe, business around and seating. They have a small but nice indoor pool and fitness center. There is a really nice outdoor seating area as well. Good place to relax between meeting with a book.
+The room was wonderful. The bed was comfortable and clean. The workspace was prefect. The desk was wide enough for me to spread my work out on. There was a fridge and microwave. The bathroom is large and modern. No...I just stayed at this hotel for a business trip and enjoyed my stay.The hotel location is both good and bad. The good is that is is centrally located and right off the interstate. So if you are in town for business or will be bouncing around to different places around Houston, this is a good spot. This is not a place I would recommend if you are in town for vacation. There is nothing around except industry buildong. There is also a lot of mess from the ongoing highway construction. I asked if there was a good place to go for a run (a park or something along those lines) and was told there was a shopping center I could run in a few miles down. There is nothing within walking distance, no food options. You have to drive everywhere.The hotel is very nice. I either went under a recent renovation or is a newer hotel. The lobby is big with a cafe, business around and seating. They have a small but nice indoor pool and fitness center. There is a really nice outdoor seating area as well. Good place to relax between meeting with a book.The room was wonderful. The bed was comfortable and clean. The workspace was prefect. The desk was wide enough for me to spread my work out on. There was a fridge and microwave. The bathroom is large and modern. No tub. My only knock was that it didn't seem like the floor was vacuumed very well. I found a lot of black hair on the bathroom floor and shower (I don't have black hair.)The staff was very friendly and quick to help/ answer any questions I had. If I am back in town for business, I wouldn't have a problem staying here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r493364000-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>493364000</t>
+  </si>
+  <si>
+    <t>06/15/2017</t>
+  </si>
+  <si>
+    <t>Best hotel in Houston 290 Strip!!!</t>
+  </si>
+  <si>
+    <t>My girl friends and I went to a party in Le Fontaine Banquet hall and needed a close Hotel to stay for the weekend. We found several hotels on the website and choose this one. We meet Carren Winters - Director of Sales upon check in gave us the best rooms- facing the courtyard - which is fabulous to relax esp. in the evening.  She also check with us the next day if everything was good - she was a ray of sunshine.  The entire staff was very attentive and friendly. Bistro was nice and David The F&amp;B Manager made sure we are taking care of. I've never experience this care from hotel management and staff before and we are blown away! Just a little hiccup the construction in 290 is a pain lol! just take the back roads and ur fine. Regards,JanineMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Greg M, General Manager at Courtyard Houston NW/290 Corridor, responded to this reviewResponded June 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 16, 2017</t>
+  </si>
+  <si>
+    <t>My girl friends and I went to a party in Le Fontaine Banquet hall and needed a close Hotel to stay for the weekend. We found several hotels on the website and choose this one. We meet Carren Winters - Director of Sales upon check in gave us the best rooms- facing the courtyard - which is fabulous to relax esp. in the evening.  She also check with us the next day if everything was good - she was a ray of sunshine.  The entire staff was very attentive and friendly. Bistro was nice and David The F&amp;B Manager made sure we are taking care of. I've never experience this care from hotel management and staff before and we are blown away! Just a little hiccup the construction in 290 is a pain lol! just take the back roads and ur fine. Regards,JanineMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r485419653-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -514,6 +802,60 @@
   </si>
   <si>
     <t>We visit Houston every couple of months on a whim roadtrip. We typically stay wherever the cheapest/highest rated hotel is on Hotels.com. I believe this hotel had a 4.6/5 on Hotels.com and ran for a total of $75 total. The score definitely seemed correct. For the price, this hotel was amazing! We arrived around 9:30 pm on a Saturday night and were checked in promptly. There was a wedding going on in the hotel, so we were initially concerned about noise -- no noise heard at all once up in our room.  We had a room on the fourth floor with a view of the terrace outside. Our room was nearly immaculate and very modern. The beds were somewhat comfortable. The bathroom was spacious and had a really nice shower. We did not take advantage of the bistro in the lobby. One suggestion would be to have free breakfast every morning. This is a hotel we will keep on our list to stay in the future. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r472752821-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>472752821</t>
+  </si>
+  <si>
+    <t>04/04/2017</t>
+  </si>
+  <si>
+    <t>Beautiful hotel</t>
+  </si>
+  <si>
+    <t>Super happy with our stay here!!!! Everything was super amazing super clean and neat. We were there for two nights and everything was excellent. What we lived the most was the excellent customer service omg everyone was super kind and polite at all times morning midday afternoon and night. From the first person you saw to the last person everyone was amazingly friendly. BEST PLACE TO STAY IN!!!!!!! we will definitely be going back soon MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>GuestRelationsHoucn, Front Office Manager at Courtyard Houston NW/290 Corridor, responded to this reviewResponded April 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 6, 2017</t>
+  </si>
+  <si>
+    <t>Super happy with our stay here!!!! Everything was super amazing super clean and neat. We were there for two nights and everything was excellent. What we lived the most was the excellent customer service omg everyone was super kind and polite at all times morning midday afternoon and night. From the first person you saw to the last person everyone was amazingly friendly. BEST PLACE TO STAY IN!!!!!!! we will definitely be going back soon More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r469579244-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>469579244</t>
+  </si>
+  <si>
+    <t>03/23/2017</t>
+  </si>
+  <si>
+    <t>Three night stay</t>
+  </si>
+  <si>
+    <t>The hotel is beautiful and generally clean. We enjoyed the back porch sitting area. The issue I had was with stained and grungy sheets on the bed. It just looked to need changing. A couple blood drip looking stains and a body smudge looking stain on one side.  I Left the comforter pulled off the bed each morning expecting them to change them. Also, I used the insulated coffee cups the first day and thought that they would be replaced, but they weren't. I stayed three days.Nice fitness center, but one of the two treadmills would not incline.Previously we stayed at next door Hilton Garden inn, and all three of us agreed that we will stay there again on coming trips.PS. The hotel staff is very nice, good people. They were polite and helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>GuestRelationsHoucn, Operations Supervisor at Courtyard Houston NW/290 Corridor, responded to this reviewResponded March 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 24, 2017</t>
+  </si>
+  <si>
+    <t>The hotel is beautiful and generally clean. We enjoyed the back porch sitting area. The issue I had was with stained and grungy sheets on the bed. It just looked to need changing. A couple blood drip looking stains and a body smudge looking stain on one side.  I Left the comforter pulled off the bed each morning expecting them to change them. Also, I used the insulated coffee cups the first day and thought that they would be replaced, but they weren't. I stayed three days.Nice fitness center, but one of the two treadmills would not incline.Previously we stayed at next door Hilton Garden inn, and all three of us agreed that we will stay there again on coming trips.PS. The hotel staff is very nice, good people. They were polite and helpful.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r465071900-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
@@ -536,9 +878,6 @@
 I had dinner here two nights and got the chicken ciabatta sandwich and then the turkey reuben. Both were very tasty. The bar service was also good. Normally, I try to go out for dinner, but with the construction and traffic, I couldn't manage to...I stayed at this Courtyard for 3 nights while in town for business.I was very warmly greeted at the front desk. I received the room I reserved, a king bed room on the third floor. The room included a comfy king bed, along with a retro chic couch. There was a small refrigerator and microwave inside a cupboard. The bathroom had a large zero entry shower, along with a make-up mirror (always welcome for a female traveler).The housekeeping was very good, and I was kept well supplied with towels.I used the fitness center every morning (luckily, it is open 24/7). There are 2 treadmills, a Precor elliptical and bike, along with free weights and a universal type machine. There were always plenty of towels, sanitizing wipes, and water. The elliptical and bike were in good shape, always a pleasant surprise. It would be great if they could add one more piece of cardio equipment, as during one morning workout every piece of cardio was being used. I actually remembered to bring my bathing suit, but never got a chance to swim. The pool is very small, though, and there is no Jacuzzi.I had dinner here two nights and got the chicken ciabatta sandwich and then the turkey reuben. Both were very tasty. The bar service was also good. Normally, I try to go out for dinner, but with the construction and traffic, I couldn't manage to gather enough energy to fight with traffic when I could relax and have dinner at the hotel. There was plenty of free parking on site.I would not hesitate to stay here on future visits.MoreShow less</t>
   </si>
   <si>
-    <t>March 2017</t>
-  </si>
-  <si>
     <t>Greg M, General Manager at Courtyard Houston NW/290 Corridor, responded to this reviewResponded May 15, 2017</t>
   </si>
   <si>
@@ -604,6 +943,60 @@
     <t>The hotel is nice modern and new hotel that is clean and well staffed. The down side is that the hotel was out of almost everything the first night of our stay. The construction and traffic noise is loud on the north side of the hotel.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r454883371-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>454883371</t>
+  </si>
+  <si>
+    <t>01/25/2017</t>
+  </si>
+  <si>
+    <t>Great Staff</t>
+  </si>
+  <si>
+    <t>The staff was great at this property. I would return. As with everything in Houston, there is ongoing road construction. However, there's no avoiding it outside of the downtown area. There was a bit of noise from a train during the night. However, overall it's a good property with friendly, attentive staff and the dedicated parking for elite members was a pleasant surprise at arrival. My only criticism would be that my request to be away from the elevator only resulted in my room being on the opposite side and it was the second room from the elevator. Not quite what I was going for.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Angel Cunningha... W, Manager at Courtyard Houston NW/290 Corridor, responded to this reviewResponded January 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 29, 2017</t>
+  </si>
+  <si>
+    <t>The staff was great at this property. I would return. As with everything in Houston, there is ongoing road construction. However, there's no avoiding it outside of the downtown area. There was a bit of noise from a train during the night. However, overall it's a good property with friendly, attentive staff and the dedicated parking for elite members was a pleasant surprise at arrival. My only criticism would be that my request to be away from the elevator only resulted in my room being on the opposite side and it was the second room from the elevator. Not quite what I was going for.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r445895241-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>445895241</t>
+  </si>
+  <si>
+    <t>12/21/2016</t>
+  </si>
+  <si>
+    <t>Business trip</t>
+  </si>
+  <si>
+    <t>I was teaching a class at this hotel and I was there for 3 days. Everyone there was more than helpful. The meeting room was great. I travel 12 or more times a year teaching classes and this is one of the nicer places I get to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Angel Cunningha... W, Manager at Courtyard Houston NW/290 Corridor, responded to this reviewResponded December 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 22, 2016</t>
+  </si>
+  <si>
+    <t>I was teaching a class at this hotel and I was there for 3 days. Everyone there was more than helpful. The meeting room was great. I travel 12 or more times a year teaching classes and this is one of the nicer places I get to stay.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r440941285-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -622,9 +1015,6 @@
     <t>November 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Angel Cunningha... W, Assistant General Manager at Courtyard Houston NW/290 Corridor, responded to this reviewResponded December 9, 2016</t>
   </si>
   <si>
@@ -679,6 +1069,57 @@
     <t>This facility is deceiving in that the exterior and neighborhood do not signal such a well renovated facility and staff that is truly committed to customer satisfaction.The lobby and rooms have been updated and it wasn't the superficialrenovation.  Rooms are well late out and was nice and clean.Staff was very attentive and accommodating.SMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r427645061-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>427645061</t>
+  </si>
+  <si>
+    <t>10/13/2016</t>
+  </si>
+  <si>
+    <t>The staff at this hotel is absolutely wonderful.</t>
+  </si>
+  <si>
+    <t>I had an absolutely wonderful customer service experience with Gretta (chef).  She went out of her way to offer a very quickly cooked breakfast as well as offer a free breakfast when it wasn't even necessary.  Due to time constraints, I couldn't wait to order and then eat so Gretta singled me out to make such kind gestures.  It is a testament to your organization to have such a customer dedicated employee.  Marcus (manager) was an pleasure to deal with at check in as well as in the restaurant area.  He went out of his way to ensure world-class service.MoreShow less</t>
+  </si>
+  <si>
+    <t>Angel C, Manager at Courtyard Houston NW/290 Corridor, responded to this reviewResponded October 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 19, 2016</t>
+  </si>
+  <si>
+    <t>I had an absolutely wonderful customer service experience with Gretta (chef).  She went out of her way to offer a very quickly cooked breakfast as well as offer a free breakfast when it wasn't even necessary.  Due to time constraints, I couldn't wait to order and then eat so Gretta singled me out to make such kind gestures.  It is a testament to your organization to have such a customer dedicated employee.  Marcus (manager) was an pleasure to deal with at check in as well as in the restaurant area.  He went out of his way to ensure world-class service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r421589819-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>421589819</t>
+  </si>
+  <si>
+    <t>09/23/2016</t>
+  </si>
+  <si>
+    <t>Home Away From Home</t>
+  </si>
+  <si>
+    <t>For the past year I have stayed here many times. The staff is amazing, friendly, helpful, easy going, and make the words "Southern Charm" a true representation of Texas. The Girl working at the front desk Raven, was such a blessing on recommendation on things to do to pass my time, and has made me reservations at other hotels, no questions asked, and confirming it by leaving a nice card in my room with all my travel information. Kay has been my representative that I have gone to on many different times to book my rooms with my travel companions, and is the most sweetest woman I have come across. That is customer service at its finest. My rooms were always clean upon Check in, as well as the rest of the hotel. Rooms are spacious, and the bed are so comfortable. Starbucks Coffee in the morning is a bonus.... and after a long day, I recommend ordering a glass of wine, and sitting outside on the swing, really helps to relax you by feeling the moist Texas air against your skin. This will always be my first choice to stay on my return.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Angel C, Manager at Courtyard Houston NW/290 Corridor, responded to this reviewResponded September 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 25, 2016</t>
+  </si>
+  <si>
+    <t>For the past year I have stayed here many times. The staff is amazing, friendly, helpful, easy going, and make the words "Southern Charm" a true representation of Texas. The Girl working at the front desk Raven, was such a blessing on recommendation on things to do to pass my time, and has made me reservations at other hotels, no questions asked, and confirming it by leaving a nice card in my room with all my travel information. Kay has been my representative that I have gone to on many different times to book my rooms with my travel companions, and is the most sweetest woman I have come across. That is customer service at its finest. My rooms were always clean upon Check in, as well as the rest of the hotel. Rooms are spacious, and the bed are so comfortable. Starbucks Coffee in the morning is a bonus.... and after a long day, I recommend ordering a glass of wine, and sitting outside on the swing, really helps to relax you by feeling the moist Texas air against your skin. This will always be my first choice to stay on my return.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r419989007-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -694,18 +1135,9 @@
     <t>Chrystal (sorry if I misspelled your name) you really made my stay great. This hotel is gorgeous in every which way. The interior design was SPECTACULAR!! If you are in town don't matter what for stay here. MoreShow less</t>
   </si>
   <si>
-    <t>September 2016</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
-    <t>Angel C, Manager at Courtyard Houston NW/290 Corridor, responded to this reviewResponded September 25, 2016</t>
-  </si>
-  <si>
-    <t>Responded September 25, 2016</t>
-  </si>
-  <si>
     <t>Chrystal (sorry if I misspelled your name) you really made my stay great. This hotel is gorgeous in every which way. The interior design was SPECTACULAR!! If you are in town don't matter what for stay here. More</t>
   </si>
   <si>
@@ -760,6 +1192,51 @@
     <t>Your Survey Comments: The people who work here are always cordial and congenial. They try to accommodate the customers. And they are patient. I feel comfortable when I stay here.  This the third time I stay here and everyone is really awesome. I like coming to a beautiful hotel that is kept impeccably and to be greeted with smiles and kindness after dealing with difficult people and in the heat of the day makes it a joy.  I would highly recommend this location and Kudos to Marriott. I have been loyal to this chain since the 1980's and it is for this very reason.  Thanks Again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r410507643-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>410507643</t>
+  </si>
+  <si>
+    <t>08/25/2016</t>
+  </si>
+  <si>
+    <t>Beautiful new location</t>
+  </si>
+  <si>
+    <t>Stayed here for 3 nights. Beautiful and updated location. Looks brand spanking new and decor was great. Staff is very pleasant attentive and very helpful. Road construction around hotel made it a chore navigating in and out however if it wasn't for that, you would note the great dinning and shopping options. Great location of you are seeing family or working in the north and west part ms of Houston but a long commute to downtown or Katy/ springhill area. Keep lots of change for tolls. Would stay again!MoreShow less</t>
+  </si>
+  <si>
+    <t>Angel C, Manager at Courtyard Houston NW/290 Corridor, responded to this reviewResponded August 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 27, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here for 3 nights. Beautiful and updated location. Looks brand spanking new and decor was great. Staff is very pleasant attentive and very helpful. Road construction around hotel made it a chore navigating in and out however if it wasn't for that, you would note the great dinning and shopping options. Great location of you are seeing family or working in the north and west part ms of Houston but a long commute to downtown or Katy/ springhill area. Keep lots of change for tolls. Would stay again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r408711178-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>408711178</t>
+  </si>
+  <si>
+    <t>08/22/2016</t>
+  </si>
+  <si>
+    <t>I stayed here for work for the first time and had a fantastic experience.  All the staff was extremely nice and took the time to answer my questions and talk to me about the area and what was around.  I'll be choosing courtyards as my go-to hotel if my experience continues to be like the one I had last week.MoreShow less</t>
+  </si>
+  <si>
+    <t>Angel C, Manager at Courtyard Houston NW/290 Corridor, responded to this reviewResponded August 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 23, 2016</t>
+  </si>
+  <si>
+    <t>I stayed here for work for the first time and had a fantastic experience.  All the staff was extremely nice and took the time to answer my questions and talk to me about the area and what was around.  I'll be choosing courtyards as my go-to hotel if my experience continues to be like the one I had last week.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r404266011-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -775,12 +1252,6 @@
     <t>Modern design, everything new, perfect service, a lot of parking spots. Very comfortable lounge bar in lobby. Highly recommend. Very nice lady on reception Yamiles provided good service and warm welcoming.MoreShow less</t>
   </si>
   <si>
-    <t>Angel C, Manager at Courtyard Houston NW/290 Corridor, responded to this reviewResponded August 23, 2016</t>
-  </si>
-  <si>
-    <t>Responded August 23, 2016</t>
-  </si>
-  <si>
     <t>Modern design, everything new, perfect service, a lot of parking spots. Very comfortable lounge bar in lobby. Highly recommend. Very nice lady on reception Yamiles provided good service and warm welcoming.More</t>
   </si>
   <si>
@@ -833,6 +1304,60 @@
   </si>
   <si>
     <t>My husband and I stayed at this hotel while in Houston to see our grandson play in a baseball tournament.  The hotel was very nice and we were immediately impressed. Angel, the manager on duty, was wonderful and so helpful. She gave directions to the restaurant and the ball field. Due to road construction in the area sometimes the gps was not correct. The hotel first floor was recently redone because of flooding 18 months ago.  The rooms are so nice with a new look. The curvy couch was a hit.  Will definitely stay here again if in this part of Houston. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r380058026-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>380058026</t>
+  </si>
+  <si>
+    <t>06/05/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worth every dime! </t>
+  </si>
+  <si>
+    <t>Amazing stay here!!!! Felt like I was at a spa when I walked in the room. Every aspect of the hotel was very clean. Greeted with great desk service. This property reconfirmed why I prefer the Marriott brand. Construction in the area but it didn't interrupt getting in and out of the hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Angel C, Manager at Courtyard Houston NW/290 Corridor, responded to this reviewResponded June 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 8, 2016</t>
+  </si>
+  <si>
+    <t>Amazing stay here!!!! Felt like I was at a spa when I walked in the room. Every aspect of the hotel was very clean. Greeted with great desk service. This property reconfirmed why I prefer the Marriott brand. Construction in the area but it didn't interrupt getting in and out of the hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r375826444-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>375826444</t>
+  </si>
+  <si>
+    <t>05/23/2016</t>
+  </si>
+  <si>
+    <t>Business Owner</t>
+  </si>
+  <si>
+    <t>I have stayed in many hotels, but the customer service provided during my stay at this hotel was exceptional! During my stay, there was a situation with my room, I called the front desk to report my situation, and Raven immediately sprung into action to correct it. She was very professional, polite, and apologetic. She was determined to correct the mistake with a smile, and that she did with such a pleasant attitude! From the moment that I checked in to the hotel until the day we checked out Raven provided us with the Courtyard experience! Courtyard would do well to employ more individuals like Raven! Thank you for wowing me with the Courtyard experience!A very satisfied customer! MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Angel C, Manager at Courtyard Houston NW/290 Corridor, responded to this reviewResponded May 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 24, 2016</t>
+  </si>
+  <si>
+    <t>I have stayed in many hotels, but the customer service provided during my stay at this hotel was exceptional! During my stay, there was a situation with my room, I called the front desk to report my situation, and Raven immediately sprung into action to correct it. She was very professional, polite, and apologetic. She was determined to correct the mistake with a smile, and that she did with such a pleasant attitude! From the moment that I checked in to the hotel until the day we checked out Raven provided us with the Courtyard experience! Courtyard would do well to employ more individuals like Raven! Thank you for wowing me with the Courtyard experience!A very satisfied customer! More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r369875836-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
@@ -855,12 +1380,6 @@
     <t>March 2016</t>
   </si>
   <si>
-    <t>Angel C, Manager at Courtyard Houston NW/290 Corridor, responded to this reviewResponded May 24, 2016</t>
-  </si>
-  <si>
-    <t>Responded May 24, 2016</t>
-  </si>
-  <si>
     <t>I've been staying here every week for 7 months, 4-5 days a week.. I know several of the other regulars and have become friends with many of the staff.. I wont go into deep details, as others have covered all of the basics.. What I will say is, you probably wont find a more personable staff anywhere - Jessica &amp; Deonica at the front desk are the best!  They take care of everyone with a smile and warm caring personality.  There are several other great people, but the front desk has such a huge impact on a stay, I think its worth mentioning them by name...this way you know who to look for. :)
 The management however needs some work.. I won't bast the GM by name, but suffice to say, as one of their top 50 guests, you'd think i'd get a quick hello or maybe even know my name?  I'm not the 'Mr Important' type, in fact I pretty much keep to myself, but damn.. the housekeepers and maintenance staff (all great) are more in-tune than the GM is.. maybe its because I'm not an older Gent, in a suit? 
 Lastly, there aren't a lot of good places to stay in this area, and Houston traffic sucks, so this is a good option for Marriott members who need to be out in Jersey Village.. There is a new Residence Inn down on Clay that will be opening soon...I've been staying here every week for 7 months, 4-5 days a week.. I know several of the other regulars and have become friends with many of the staff.. I wont go into deep details, as others have covered all of the basics.. What I will say is, you probably wont find a more personable staff anywhere - Jessica &amp; Deonica at the front desk are the best!  They take care of everyone with a smile and warm caring personality.  There are several other great people, but the front desk has such a huge impact on a stay, I think its worth mentioning them by name...this way you know who to look for. :)The management however needs some work.. I won't bast the GM by name, but suffice to say, as one of their top 50 guests, you'd think i'd get a quick hello or maybe even know my name?  I'm not the 'Mr Important' type, in fact I pretty much keep to myself, but damn.. the housekeepers and maintenance staff (all great) are more in-tune than the GM is.. maybe its because I'm not an older Gent, in a suit? Lastly, there aren't a lot of good places to stay in this area, and Houston traffic sucks, so this is a good option for Marriott members who need to be out in Jersey Village.. There is a new Residence Inn down on Clay that will be opening soon too..yay!The Bistro is meh, the burger is terrible, but the checkin wings are pretty good.   Most of the breakfast options are good too.More</t>
@@ -914,6 +1433,48 @@
     <t>I was originally going to stay at this Courtyard for 4 nights for the Final Four.  I arrived after midnight. From what I saw, there was nothing around the hotel.  I went inside and found a half asleep staff member behind the front desk.  After checking in, I asked if there was anything open nearby where I could get some food.  He stated that he did live near nearby but knew there was a McDonald about a mile down the road.  With all the road construction going on around the hotel, it was difficult at night to see where on the road should I be driving.I'm a Marriott Gold Elite status member and the room they gave me was right next to the elevator.  I could hear noise from the elevator every time someone used it.  The walls in the room were paper thin. I could hear noise up and down the hallway.  The hotel plays music in the hallway, and I could hear that all night.  I got very little sleep.  So, the next morning, I got up and checked out.I also did not like that my room did not have any place for me to hang my clothes.  No closet or cabinet.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r361466409-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>361466409</t>
+  </si>
+  <si>
+    <t>04/04/2016</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>New hotel. Very nice layout. Excellent bedding. Price was excellent. Evening attendant was not very nice, but that was not the norm. Road construction made this location hard to see heading from the east. I have to type 200 characters to submit this. MoreShow less</t>
+  </si>
+  <si>
+    <t>Julie A, General Manager at Courtyard Houston NW/290 Corridor, responded to this reviewResponded April 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 6, 2016</t>
+  </si>
+  <si>
+    <t>New hotel. Very nice layout. Excellent bedding. Price was excellent. Evening attendant was not very nice, but that was not the norm. Road construction made this location hard to see heading from the east. I have to type 200 characters to submit this. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r361010813-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>361010813</t>
+  </si>
+  <si>
+    <t>04/02/2016</t>
+  </si>
+  <si>
+    <t>Exceptional staff!</t>
+  </si>
+  <si>
+    <t>This hotel was a great choice for my trip to Houston. I was greeted every time I was leaving and returning from a long work day. The staff was great, very accommodating and always asking if there is anything else they can do for you.  I would highly recommend this hotel if you're going to be in the North Houston area.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel was a great choice for my trip to Houston. I was greeted every time I was leaving and returning from a long work day. The staff was great, very accommodating and always asking if there is anything else they can do for you.  I would highly recommend this hotel if you're going to be in the North Houston area.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r356638472-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -990,6 +1551,57 @@
   </si>
   <si>
     <t>This is a very cozy newer Courtyard hotel located right by highway US 290, about 20 minutes away from the downtown area. I had a wonderful stay at this Courtyard location with my wife, it is newly built (like stated), very clean and good design. It offers a great exterior/outdoor setting and the staff is friendly and courteous. They are generous about check-out time as we had to check-out a bit later than the scheduled time without any hassles or any questions asked. Wifi works great, fast and no network or connectivity issues. The hotel is good for business and family visit alike. Would return here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r308288844-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>308288844</t>
+  </si>
+  <si>
+    <t>09/08/2015</t>
+  </si>
+  <si>
+    <t>Pleasant, newer Courtyard</t>
+  </si>
+  <si>
+    <t>This location is only a year old and is in a developing area. Facility is a typical newerdesign Courtyard. Staff is friendly, helpful and well-trained. Only stayed one night, but would definitely return should the need arise. Management appears to be very active in obtaining customer feedback, which is always a good sign. Only negative was that a glass of the house merlot was $13. (Actually my wife and I had 4 glasses.) Never thought to ask, so shame on me. Night wait staff served us some wonderful treats and we had a lovely evening.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Julie A, General Manager at Courtyard Houston NW/290 Corridor, responded to this reviewResponded September 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 11, 2015</t>
+  </si>
+  <si>
+    <t>This location is only a year old and is in a developing area. Facility is a typical newerdesign Courtyard. Staff is friendly, helpful and well-trained. Only stayed one night, but would definitely return should the need arise. Management appears to be very active in obtaining customer feedback, which is always a good sign. Only negative was that a glass of the house merlot was $13. (Actually my wife and I had 4 glasses.) Never thought to ask, so shame on me. Night wait staff served us some wonderful treats and we had a lovely evening.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r305136950-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>305136950</t>
+  </si>
+  <si>
+    <t>08/30/2015</t>
+  </si>
+  <si>
+    <t>Great for business travel</t>
+  </si>
+  <si>
+    <t>I have stayed at this property twice this year and had a wonderful stay both times.  Hotel is very clean and modern looking.  Staff was very friendly and made me feel welcome.  Breakfast staff at the bistro were outstanding….friendly, pleasant and efficient.  Remembered my coffee drink from one morning to the next.MoreShow less</t>
+  </si>
+  <si>
+    <t>Julie A, General Manager at Courtyard Houston NW/290 Corridor, responded to this reviewResponded September 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 4, 2015</t>
+  </si>
+  <si>
+    <t>I have stayed at this property twice this year and had a wonderful stay both times.  Hotel is very clean and modern looking.  Staff was very friendly and made me feel welcome.  Breakfast staff at the bistro were outstanding….friendly, pleasant and efficient.  Remembered my coffee drink from one morning to the next.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r294412427-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
@@ -1015,12 +1627,6 @@
     <t>June 2015</t>
   </si>
   <si>
-    <t>Julie A, General Manager at Courtyard Houston NW/290 Corridor, responded to this reviewResponded September 4, 2015</t>
-  </si>
-  <si>
-    <t>Responded September 4, 2015</t>
-  </si>
-  <si>
     <t>I booked a block of rooms for a company meeting at this hotel. I arrived early to ensure everything was in order. When I arrived, I did not have a room, another guest's room had been cancelled, and the hotel told me they were sold out. I gave them my confirmation number and they said they would see what they could do. They got me a room, but told me I would need to speak with the night manager regarding the other room. We were able to get a room for the other guest, but had to jump through hoops for something that was not our fault. 
 The cafe must have had all new people - they could not seem to figure out how to make drinks - coffee or otherwise. After the first night, we opted to find another place to eat. 
 After we left, I checked my credit card statement and had extra charges. (One room that was cancelled by the hotel, and another for a guest that had been there and offered their credit card, but they said it was not needed.)
@@ -1080,6 +1686,54 @@
     <t>For 2 days of a 3 night stay, the fire alarm in the hall "chirped" 24 hours a day. It was brought to the attention of the front desk twice. The alarm was on the second floor in the open area and the front desk personnel could hear it too. Very annoying sound and definitely interfere with  sleep. Then on last night, noise from the room above. Sounds like someone was jumping around the room. This went on from 11pm to 4am. Front desk said there wasn't much that could be done. In  a 3 night stay, I had less than 8 hours of sleep. Definitely will avoid this property and probably Courtyard in general. The fire alarm  issue is just a local management issue; however, the ease of sound transfer between floor is a construction issue and I will need to assume it is a flaw in the corp design. This is not a hotel to stay in if one really wants rest. More geared to marketing it's "pay for amenities" and "cosmetics." This is not a guest focused property.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r270431367-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>270431367</t>
+  </si>
+  <si>
+    <t>05/06/2015</t>
+  </si>
+  <si>
+    <t>Great Hotel for NW Houston</t>
+  </si>
+  <si>
+    <t>I've been traveling to this area for seven years and so happy to see this hotel now open.  Apparently its been open since September 2014, but somehow I missed it.  I would say it was the nicest Courtyard I have ever stayed in, and I travel every week and use Courtyard a fair amount.  Hands down.  It was well appointed, clean, quiet and new!!  The staff was friendly and helpful.  The new look room is cool and comfortable.  Not accessible from the frontage road, so don't miss the turn to Gessner Road, or its a long trip around the block.  I'm very happy this hotel is in the area now.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>I've been traveling to this area for seven years and so happy to see this hotel now open.  Apparently its been open since September 2014, but somehow I missed it.  I would say it was the nicest Courtyard I have ever stayed in, and I travel every week and use Courtyard a fair amount.  Hands down.  It was well appointed, clean, quiet and new!!  The staff was friendly and helpful.  The new look room is cool and comfortable.  Not accessible from the frontage road, so don't miss the turn to Gessner Road, or its a long trip around the block.  I'm very happy this hotel is in the area now.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r259011601-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>259011601</t>
+  </si>
+  <si>
+    <t>03/11/2015</t>
+  </si>
+  <si>
+    <t>Great newer location</t>
+  </si>
+  <si>
+    <t>The hotel is in a great location for anyone with business on the North West side of Houston.  I have stayed here a couple of times, and plan to make a few more trips to this location.  I am told this is a newer Courtyard location and the Hotel itself is very clean.  I have found their beds are some of the best I have slept in outside my own.  They have a minibar in the lobby, and serve sandwich meals.  unfortunately, as with most Marriott Courtyards, they are very nice but do not have Continental breakfast or Elite Lounge for Marriott Elite customers.  However,  I have been very impressed with this hotel, I have a choice of where to stay, and I will be coming back to this one.  It only takes me 10-15 minutes in the worst rush hour to get to the 290 Loop intersection, and much less if the traffic is not bad.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Julie A, General Manager at Courtyard Houston NW/290 Corridor, responded to this reviewResponded March 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 16, 2015</t>
+  </si>
+  <si>
+    <t>The hotel is in a great location for anyone with business on the North West side of Houston.  I have stayed here a couple of times, and plan to make a few more trips to this location.  I am told this is a newer Courtyard location and the Hotel itself is very clean.  I have found their beds are some of the best I have slept in outside my own.  They have a minibar in the lobby, and serve sandwich meals.  unfortunately, as with most Marriott Courtyards, they are very nice but do not have Continental breakfast or Elite Lounge for Marriott Elite customers.  However,  I have been very impressed with this hotel, I have a choice of where to stay, and I will be coming back to this one.  It only takes me 10-15 minutes in the worst rush hour to get to the 290 Loop intersection, and much less if the traffic is not bad.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r257579796-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -1095,9 +1749,6 @@
     <t>This is a beautiful Marriott Courtyard and I have enjoyed my stay thus far (2 days). The rooms are beautiful, lighting and ambiance is amazing; perfect for the business traveler. On the minus - the room could use a little more drawer space, however I am dealing with the problem and the other amentias make up for the difference.The staff is nice and caring. It seems they are still getting adjusted to serving meals in the "restaurant" but are doing okay. The outdoor area is nice, water features, places to relax and fireplace. Pool small, exercise area pretty good.All in all - highly satisfied. I would stay here again and recommend to others.MoreShow less</t>
   </si>
   <si>
-    <t>March 2015</t>
-  </si>
-  <si>
     <t>Julie A, General Manager at Courtyard Houston NW/290 Corridor, responded to this reviewResponded March 4, 2015</t>
   </si>
   <si>
@@ -1155,6 +1806,57 @@
     <t>I recently stayed at this hotel and I must say that it was pretty nice. The color changing fountain was nice outside as well as the fireplace. Although there was construction going on with the highway, it was still a nice place to stay. The staff was very friendly, nice and helpful. My son left his BEATs by Dre headphones on the bed when we left and we did not realize it until we were on the other side of Houston. I called the hotel and spoke with the front desk to explain what had happened. They advised me that they would check with housekeeping. They didn't call me back right away, so after an hour I called again and the very helpful lady advised me that she would go up herself along with security and check the room. They called me back to advise me that housekeeping had already grabbed the linen off the bed and placed in the bin with all the other linen and that it would be about 1-2 days before they would be able to look through it all. I was okay with that, but when I got another phone call an hour later, it put a smile on my face, because the lady called me to say that they had found the headphones and she was gonna leave them upfront for me. I drove back over to pick them up and they had them...I recently stayed at this hotel and I must say that it was pretty nice. The color changing fountain was nice outside as well as the fireplace. Although there was construction going on with the highway, it was still a nice place to stay. The staff was very friendly, nice and helpful. My son left his BEATs by Dre headphones on the bed when we left and we did not realize it until we were on the other side of Houston. I called the hotel and spoke with the front desk to explain what had happened. They advised me that they would check with housekeeping. They didn't call me back right away, so after an hour I called again and the very helpful lady advised me that she would go up herself along with security and check the room. They called me back to advise me that housekeeping had already grabbed the linen off the bed and placed in the bin with all the other linen and that it would be about 1-2 days before they would be able to look through it all. I was okay with that, but when I got another phone call an hour later, it put a smile on my face, because the lady called me to say that they had found the headphones and she was gonna leave them upfront for me. I drove back over to pick them up and they had them waiting for me. I would definitely stay at this hotel again. I love the Marriott family and anytime I travel, I stay at one of these. Keep up the great work.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r254019861-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>254019861</t>
+  </si>
+  <si>
+    <t>02/13/2015</t>
+  </si>
+  <si>
+    <t>Newer hotel that really tries</t>
+  </si>
+  <si>
+    <t>New modern styled rooms are very nice.  Comfortable bed, step in shower, hidden refrigerator microwave, swivel tv and lots of outlets.  Only complaint was there was not enough drawers.  The staff were also friendly and helpful.  They seemed to really care.MoreShow less</t>
+  </si>
+  <si>
+    <t>Julie A, General Manager at Courtyard Houston NW/290 Corridor, responded to this reviewResponded February 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 15, 2015</t>
+  </si>
+  <si>
+    <t>New modern styled rooms are very nice.  Comfortable bed, step in shower, hidden refrigerator microwave, swivel tv and lots of outlets.  Only complaint was there was not enough drawers.  The staff were also friendly and helpful.  They seemed to really care.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r244074138-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>244074138</t>
+  </si>
+  <si>
+    <t>12/11/2014</t>
+  </si>
+  <si>
+    <t>Very Nice Courtyard</t>
+  </si>
+  <si>
+    <t>This is a pretty new property. Unforetunately, there is a lot of road construction going on in front of the property. As a platinum member we asked for upgrade and got one, but it was a handicap room. That was not what we wanted but they said they only had 3 rooms to upgrade to and one was smoked in by a guest so they were having to deal with that. Staff was friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Julie A, General Manager at Courtyard Houston NW/290 Corridor, responded to this reviewResponded December 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 14, 2014</t>
+  </si>
+  <si>
+    <t>This is a pretty new property. Unforetunately, there is a lot of road construction going on in front of the property. As a platinum member we asked for upgrade and got one, but it was a handicap room. That was not what we wanted but they said they only had 3 rooms to upgrade to and one was smoked in by a guest so they were having to deal with that. Staff was friendly.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r243559097-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -1173,12 +1875,6 @@
     <t>November 2014</t>
   </si>
   <si>
-    <t>Julie A, General Manager at Courtyard Houston NW/290 Corridor, responded to this reviewResponded December 14, 2014</t>
-  </si>
-  <si>
-    <t>Responded December 14, 2014</t>
-  </si>
-  <si>
     <t>I have traveled on business and stayed at this new Courtyard several times.  What keeps me coming back is the great service, comfortable and modern room, friendly staff, great location and good food options in the Bistro.  I would recommend this hotel for the business traveler and leisure guest.  The staff go above and beyond to make you feel welcomed and I look forward to my next stay!More</t>
   </si>
   <si>
@@ -1222,6 +1918,54 @@
   </si>
   <si>
     <t>This Courtyard was opened only a couple of months ago and has a few opening pains but was very clean and quite functional.  The hotel is right off of the highway, Route 290. There is a Bistro in the hotel that is only open about 10 hours or so a day but does offer Breakfast, Lunch and Dinner.  The room was comfortable with a couch, ottoman and a little couch table that slides underneath the edge of the couch to act as a writing table. Some of the furniture is not square or rectangle but has some angles to it.  The cupboard, above the A/C unit, and desk/drawers unit are more modern.  There is a small fridge and microwave tucked into the slanted cupboard.  The walls are not similar and have texture and colors that make it interesting.  The bathroom his modern fixtures and also has a long glass shower wall that has an opening but no door.  The only thing that I did not find was an in-room safe.  The clothes closet was hidden behind a mirrored magnetic door to allow it to blend in with the decor.  There is an outside fireplace that has a fountain with colored lights and a small inside pool and small gym with 3 treadmills and  one universal machine plus a rack of free-weights.  Beware that there is construction up and down both sides of 290 where it appears that they are working...This Courtyard was opened only a couple of months ago and has a few opening pains but was very clean and quite functional.  The hotel is right off of the highway, Route 290. There is a Bistro in the hotel that is only open about 10 hours or so a day but does offer Breakfast, Lunch and Dinner.  The room was comfortable with a couch, ottoman and a little couch table that slides underneath the edge of the couch to act as a writing table. Some of the furniture is not square or rectangle but has some angles to it.  The cupboard, above the A/C unit, and desk/drawers unit are more modern.  There is a small fridge and microwave tucked into the slanted cupboard.  The walls are not similar and have texture and colors that make it interesting.  The bathroom his modern fixtures and also has a long glass shower wall that has an opening but no door.  The only thing that I did not find was an in-room safe.  The clothes closet was hidden behind a mirrored magnetic door to allow it to blend in with the decor.  There is an outside fireplace that has a fountain with colored lights and a small inside pool and small gym with 3 treadmills and  one universal machine plus a rack of free-weights.  Beware that there is construction up and down both sides of 290 where it appears that they are working on the raised exits and entrances. This slows the traffic a bit during rush hour but not much other than that. There are plenty (30 - 40) of restaurants on both sides of 290 only a few exits away from $ - $$$.  There are 3 computers at desks in the lounge that you can use to browse the internet and a 4th stand-up only for printing boarding passes but all the others can print boarding passes too. USA Todays are free in the lounge.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r234942743-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>234942743</t>
+  </si>
+  <si>
+    <t>10/17/2014</t>
+  </si>
+  <si>
+    <t>Platinum requests ignored</t>
+  </si>
+  <si>
+    <t>I was very disappointed to check in to my room after calling the day before to make sure we had a feather free room (son and wife both allergic) and also a room facing the fountain in the back (quieter) of the hotel. We got neither after Zariah told me it would be taken care of. Spoke to the manager who took care of the request, kind of.  Put us in a feather free room but nothing close to seeing the fountain in back. While we waited for our new room to be prepared, I went over to the bar to get myself a martini and my wife a glass of wine. Wow, what a debacle. That young lady had no business behind that bar. She used a cheat sheet bar guide for every drink. I had to explain to her how to make a dirty martini??? And, she overcharged me until I corrected her on the pricing.  Besides that, the hotel manager watched me and my frustration and didn't offer to come and comp the drinks as an apology for screwing up our room and requests. No compensation at all. They have a long way to go and I travel to Houston 120 days a year. They won't see me again. Poor example of the brand on the service side of things. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Julie A, General Manager at Courtyard Houston NW/290 Corridor, responded to this reviewResponded October 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 24, 2014</t>
+  </si>
+  <si>
+    <t>I was very disappointed to check in to my room after calling the day before to make sure we had a feather free room (son and wife both allergic) and also a room facing the fountain in the back (quieter) of the hotel. We got neither after Zariah told me it would be taken care of. Spoke to the manager who took care of the request, kind of.  Put us in a feather free room but nothing close to seeing the fountain in back. While we waited for our new room to be prepared, I went over to the bar to get myself a martini and my wife a glass of wine. Wow, what a debacle. That young lady had no business behind that bar. She used a cheat sheet bar guide for every drink. I had to explain to her how to make a dirty martini??? And, she overcharged me until I corrected her on the pricing.  Besides that, the hotel manager watched me and my frustration and didn't offer to come and comp the drinks as an apology for screwing up our room and requests. No compensation at all. They have a long way to go and I travel to Houston 120 days a year. They won't see me again. Poor example of the brand on the service side of things. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6161700-r228117223-Courtyard_Houston_NW_290_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>228117223</t>
+  </si>
+  <si>
+    <t>09/10/2014</t>
+  </si>
+  <si>
+    <t>Best new business hotel in town</t>
+  </si>
+  <si>
+    <t>This Marriott courtyard is brand new (9/1/2014) and features the latest in room designs for the business traveler.I log 2-3 nights per week in hotels around the country and this is going to be one of my new locations for Houston. Each room now has a fridge, microwave and coffee maker. And IMO one of the better features, outlets and USB ports located everywhere like on the desk and near the bedside. The room ergonomics work well as does the new soft colors. There is the Bistro café that is common in Courtyards these days with a great selection of health things to eat and your favorite Starbucks beverage.Also check out the actual courtyard out back with the color changing fountain and fireplace.Getting to downtown or galleria area is not to bad. The only issues IMO is all the TXDOT construction on the local highways but that should wrap up soon. Pros: quiet, clean, functionalCons: new properties means breaking in the staff. :)Inside secret: if you need a coca cola product for your favorite libation they will find it for you!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>This Marriott courtyard is brand new (9/1/2014) and features the latest in room designs for the business traveler.I log 2-3 nights per week in hotels around the country and this is going to be one of my new locations for Houston. Each room now has a fridge, microwave and coffee maker. And IMO one of the better features, outlets and USB ports located everywhere like on the desk and near the bedside. The room ergonomics work well as does the new soft colors. There is the Bistro café that is common in Courtyards these days with a great selection of health things to eat and your favorite Starbucks beverage.Also check out the actual courtyard out back with the color changing fountain and fireplace.Getting to downtown or galleria area is not to bad. The only issues IMO is all the TXDOT construction on the local highways but that should wrap up soon. Pros: quiet, clean, functionalCons: new properties means breaking in the staff. :)Inside secret: if you need a coca cola product for your favorite libation they will find it for you!More</t>
   </si>
 </sst>
 </file>
@@ -1756,7 +2500,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1817,13 +2561,13 @@
         <v>61</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1835,13 +2579,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="X3" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
@@ -1857,7 +2601,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1866,49 +2610,43 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="O4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="n">
-        <v>4</v>
-      </c>
-      <c r="R4" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>1</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="X4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Y4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
@@ -1924,7 +2662,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1933,47 +2671,43 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="O5" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>4</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="X5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Y5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
@@ -1989,7 +2723,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1998,25 +2732,25 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="O6" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2028,13 +2762,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="X6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="Y6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
@@ -2050,7 +2784,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -2059,32 +2793,38 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>80</v>
+      </c>
+      <c r="O7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
         <v>4</v>
       </c>
-      <c r="N7" t="s">
-        <v>95</v>
-      </c>
-      <c r="O7" t="s">
-        <v>62</v>
-      </c>
-      <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
-      <c r="R7" t="s"/>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
@@ -2132,35 +2872,31 @@
         <v>103</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="O8" t="s">
-        <v>62</v>
-      </c>
-      <c r="P8" t="n">
-        <v>5</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>5</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
+        <v>104</v>
+      </c>
+      <c r="X8" t="s">
         <v>105</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>106</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="9">
@@ -2176,52 +2912,58 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
         <v>108</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>109</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>110</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>111</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
         <v>112</v>
       </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>104</v>
-      </c>
       <c r="O9" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>2</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="X9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="Y9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10">
@@ -2237,7 +2979,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -2246,43 +2988,47 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K10" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L10" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="O10" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
       <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="X10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Y10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11">
@@ -2298,7 +3044,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -2307,47 +3053,43 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="J11" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K11" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L11" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O11" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
-      <c r="S11" t="n">
-        <v>5</v>
-      </c>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>5</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="X11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Y11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12">
@@ -2363,7 +3105,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2372,49 +3114,43 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="K12" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L12" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="O12" t="s">
-        <v>62</v>
-      </c>
-      <c r="P12" t="n">
-        <v>4</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
-      <c r="S12" t="n">
-        <v>5</v>
-      </c>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>5</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="X12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="Y12" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13">
@@ -2430,7 +3166,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2439,25 +3175,25 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="J13" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="K13" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="L13" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="O13" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2469,13 +3205,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="X13" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="Y13" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14">
@@ -2491,7 +3227,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2500,47 +3236,43 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="J14" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="K14" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="L14" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="O14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P14" t="s"/>
-      <c r="Q14" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>5</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="X14" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="Y14" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15">
@@ -2556,7 +3288,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2565,43 +3297,47 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="J15" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="K15" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="L15" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="O15" t="s">
-        <v>62</v>
-      </c>
-      <c r="P15" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
       <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="X15" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="Y15" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16">
@@ -2617,7 +3353,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2626,25 +3362,25 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="J16" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="K16" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="L16" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2656,13 +3392,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="X16" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Y16" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17">
@@ -2678,7 +3414,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2687,49 +3423,43 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="J17" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="K17" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="L17" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="O17" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="P17" t="s"/>
-      <c r="Q17" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
-      <c r="S17" t="n">
-        <v>5</v>
-      </c>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>5</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="X17" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="Y17" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18">
@@ -2745,7 +3475,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2754,49 +3484,43 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="J18" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="K18" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="L18" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="O18" t="s">
-        <v>62</v>
-      </c>
-      <c r="P18" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>5</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>5</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="X18" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="Y18" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19">
@@ -2812,7 +3536,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2821,38 +3545,32 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="J19" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="K19" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="L19" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="M19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N19" t="s">
         <v>188</v>
       </c>
       <c r="O19" t="s">
-        <v>62</v>
-      </c>
-      <c r="P19" t="n">
-        <v>4</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
-      <c r="S19" t="n">
-        <v>4</v>
-      </c>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>3</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
@@ -2863,7 +3581,7 @@
         <v>190</v>
       </c>
       <c r="Y19" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20">
@@ -2879,7 +3597,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2888,30 +3606,28 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="J20" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="K20" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="L20" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="O20" t="s">
-        <v>198</v>
+        <v>89</v>
       </c>
       <c r="P20" t="s"/>
-      <c r="Q20" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
       <c r="S20" t="n">
         <v>5</v>
@@ -2924,13 +3640,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="X20" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Y20" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21">
@@ -2946,7 +3662,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2955,43 +3671,49 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
+        <v>208</v>
+      </c>
+      <c r="J21" t="s">
+        <v>200</v>
+      </c>
+      <c r="K21" t="s">
+        <v>209</v>
+      </c>
+      <c r="L21" t="s">
+        <v>210</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
         <v>203</v>
       </c>
-      <c r="J21" t="s">
-        <v>204</v>
-      </c>
-      <c r="K21" t="s">
-        <v>205</v>
-      </c>
-      <c r="L21" t="s">
-        <v>206</v>
-      </c>
-      <c r="M21" t="n">
-        <v>5</v>
-      </c>
-      <c r="N21" t="s">
-        <v>207</v>
-      </c>
       <c r="O21" t="s">
-        <v>62</v>
-      </c>
-      <c r="P21" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
       <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
-      <c r="S21" t="s"/>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
       <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="X21" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="Y21" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22">
@@ -3007,7 +3729,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -3016,10 +3738,10 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J22" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="K22" t="s">
         <v>214</v>
@@ -3028,34 +3750,28 @@
         <v>215</v>
       </c>
       <c r="M22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="O22" t="s">
-        <v>198</v>
+        <v>89</v>
       </c>
       <c r="P22" t="s"/>
-      <c r="Q22" t="n">
-        <v>4</v>
-      </c>
-      <c r="R22" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>4</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="X22" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="Y22" t="s">
         <v>216</v>
@@ -3095,14 +3811,10 @@
         <v>221</v>
       </c>
       <c r="M23" t="n">
-        <v>5</v>
-      </c>
-      <c r="N23" t="s">
-        <v>222</v>
-      </c>
-      <c r="O23" t="s">
-        <v>223</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
@@ -3113,13 +3825,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
+        <v>222</v>
+      </c>
+      <c r="X23" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y23" t="s">
         <v>224</v>
-      </c>
-      <c r="X23" t="s">
-        <v>225</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="24">
@@ -3135,40 +3847,40 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
+        <v>225</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>226</v>
+      </c>
+      <c r="J24" t="s">
         <v>227</v>
       </c>
-      <c r="G24" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="K24" t="s">
         <v>228</v>
       </c>
-      <c r="J24" t="s">
+      <c r="L24" t="s">
         <v>229</v>
       </c>
-      <c r="K24" t="s">
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
         <v>230</v>
       </c>
-      <c r="L24" t="s">
+      <c r="O24" t="s">
         <v>231</v>
       </c>
-      <c r="M24" t="n">
-        <v>5</v>
-      </c>
-      <c r="N24" t="s">
-        <v>232</v>
-      </c>
-      <c r="O24" t="s">
-        <v>62</v>
-      </c>
-      <c r="P24" t="n">
-        <v>5</v>
-      </c>
+      <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
-      <c r="R24" t="s"/>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
       <c r="S24" t="n">
         <v>5</v>
       </c>
@@ -3180,13 +3892,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
+        <v>232</v>
+      </c>
+      <c r="X24" t="s">
         <v>233</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>234</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="25">
@@ -3202,43 +3914,41 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
+        <v>235</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
         <v>236</v>
       </c>
-      <c r="G25" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" t="s">
-        <v>47</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>237</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>238</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>239</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
         <v>240</v>
       </c>
-      <c r="M25" t="n">
-        <v>5</v>
-      </c>
-      <c r="N25" t="s">
-        <v>232</v>
-      </c>
       <c r="O25" t="s">
-        <v>223</v>
+        <v>89</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="n">
         <v>5</v>
       </c>
       <c r="R25" t="s"/>
-      <c r="S25" t="n">
-        <v>5</v>
-      </c>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
         <v>5</v>
@@ -3293,23 +4003,17 @@
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="O26" t="s">
-        <v>62</v>
-      </c>
-      <c r="P26" t="n">
-        <v>4</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
       <c r="R26" t="s"/>
-      <c r="S26" t="n">
-        <v>5</v>
-      </c>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>4</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
@@ -3357,10 +4061,10 @@
         <v>256</v>
       </c>
       <c r="M27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="O27" t="s">
         <v>53</v>
@@ -3424,7 +4128,7 @@
         <v>265</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3485,18 +4189,14 @@
         <v>274</v>
       </c>
       <c r="O29" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
       <c r="R29" t="s"/>
-      <c r="S29" t="n">
-        <v>4</v>
-      </c>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>5</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
@@ -3544,22 +4244,22 @@
         <v>282</v>
       </c>
       <c r="M30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="O30" t="s">
-        <v>62</v>
-      </c>
-      <c r="P30" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q30" t="s"/>
-      <c r="R30" t="n">
-        <v>4</v>
-      </c>
-      <c r="S30" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
         <v>5</v>
@@ -3568,10 +4268,10 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
+        <v>283</v>
+      </c>
+      <c r="X30" t="s">
         <v>284</v>
-      </c>
-      <c r="X30" t="s">
-        <v>276</v>
       </c>
       <c r="Y30" t="s">
         <v>285</v>
@@ -3611,23 +4311,25 @@
         <v>290</v>
       </c>
       <c r="M31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="O31" t="s">
-        <v>223</v>
-      </c>
-      <c r="P31" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
       <c r="Q31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R31" t="s"/>
       <c r="S31" t="s"/>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3676,25 +4378,25 @@
         <v>298</v>
       </c>
       <c r="M32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N32" t="s">
         <v>299</v>
       </c>
       <c r="O32" t="s">
-        <v>62</v>
-      </c>
-      <c r="P32" t="s"/>
-      <c r="Q32" t="n">
+        <v>89</v>
+      </c>
+      <c r="P32" t="n">
         <v>4</v>
       </c>
+      <c r="Q32" t="s"/>
       <c r="R32" t="s"/>
       <c r="S32" t="n">
         <v>4</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3743,31 +4445,37 @@
         <v>307</v>
       </c>
       <c r="M33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="O33" t="s">
-        <v>62</v>
-      </c>
-      <c r="P33" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
       <c r="Q33" t="s"/>
       <c r="R33" t="s"/>
-      <c r="S33" t="s"/>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
       <c r="T33" t="s"/>
-      <c r="U33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="X33" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Y33" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="34">
@@ -3783,7 +4491,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3792,34 +4500,34 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="J34" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K34" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L34" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="n">
         <v>5</v>
       </c>
-      <c r="R34" t="s"/>
-      <c r="S34" t="n">
-        <v>5</v>
-      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
         <v>5</v>
@@ -3828,13 +4536,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="X34" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Y34" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="35">
@@ -3850,7 +4558,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -3859,49 +4567,49 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="J35" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K35" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L35" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O35" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P35" t="s"/>
-      <c r="Q35" t="s"/>
-      <c r="R35" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="s"/>
       <c r="S35" t="n">
         <v>5</v>
       </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="X35" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Y35" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="36">
@@ -3917,7 +4625,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -3926,25 +4634,25 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="J36" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K36" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L36" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O36" t="s">
-        <v>198</v>
+        <v>89</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -3956,13 +4664,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="X36" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Y36" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="37">
@@ -3978,7 +4686,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -3987,49 +4695,49 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="J37" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K37" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L37" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="O37" t="s">
-        <v>223</v>
+        <v>63</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="n">
         <v>3</v>
       </c>
-      <c r="R37" t="s"/>
-      <c r="S37" t="n">
-        <v>4</v>
-      </c>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="X37" t="s">
+        <v>337</v>
+      </c>
+      <c r="Y37" t="s">
         <v>344</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="38">
@@ -4045,38 +4753,36 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
+        <v>345</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
         <v>346</v>
       </c>
-      <c r="G38" t="s">
-        <v>46</v>
-      </c>
-      <c r="H38" t="s">
-        <v>47</v>
-      </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>347</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>348</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
         <v>349</v>
       </c>
-      <c r="L38" t="s">
-        <v>350</v>
-      </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="O38" t="s">
-        <v>62</v>
-      </c>
-      <c r="P38" t="n">
-        <v>4</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="P38" t="s"/>
       <c r="Q38" t="n">
         <v>5</v>
       </c>
@@ -4090,13 +4796,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
+        <v>350</v>
+      </c>
+      <c r="X38" t="s">
+        <v>351</v>
+      </c>
+      <c r="Y38" t="s">
         <v>352</v>
-      </c>
-      <c r="X38" t="s">
-        <v>353</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="39">
@@ -4112,43 +4818,43 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
+        <v>353</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>354</v>
+      </c>
+      <c r="J39" t="s">
         <v>355</v>
       </c>
-      <c r="G39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H39" t="s">
-        <v>47</v>
-      </c>
-      <c r="I39" t="s">
+      <c r="K39" t="s">
         <v>356</v>
       </c>
-      <c r="J39" t="s">
+      <c r="L39" t="s">
         <v>357</v>
       </c>
-      <c r="K39" t="s">
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
         <v>358</v>
       </c>
-      <c r="L39" t="s">
-        <v>359</v>
-      </c>
-      <c r="M39" t="n">
-        <v>5</v>
-      </c>
-      <c r="N39" t="s">
-        <v>360</v>
-      </c>
       <c r="O39" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="P39" t="n">
         <v>4</v>
       </c>
-      <c r="Q39" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q39" t="s"/>
       <c r="R39" t="s"/>
-      <c r="S39" t="s"/>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
         <v>5</v>
@@ -4157,10 +4863,10 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="X39" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="Y39" t="s">
         <v>361</v>
@@ -4203,32 +4909,28 @@
         <v>5</v>
       </c>
       <c r="N40" t="s">
+        <v>358</v>
+      </c>
+      <c r="O40" t="s">
         <v>367</v>
-      </c>
-      <c r="O40" t="s">
-        <v>198</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
-      <c r="R40" t="n">
-        <v>4</v>
-      </c>
+      <c r="R40" t="s"/>
       <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="n">
-        <v>5</v>
-      </c>
+      <c r="U40" t="s"/>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s">
+        <v>359</v>
+      </c>
+      <c r="X40" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y40" t="s">
         <v>368</v>
-      </c>
-      <c r="X40" t="s">
-        <v>369</v>
-      </c>
-      <c r="Y40" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="41">
@@ -4244,40 +4946,40 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
+        <v>369</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>370</v>
+      </c>
+      <c r="J41" t="s">
         <v>371</v>
       </c>
-      <c r="G41" t="s">
-        <v>46</v>
-      </c>
-      <c r="H41" t="s">
-        <v>47</v>
-      </c>
-      <c r="I41" t="s">
+      <c r="K41" t="s">
         <v>372</v>
       </c>
-      <c r="J41" t="s">
+      <c r="L41" t="s">
         <v>373</v>
       </c>
-      <c r="K41" t="s">
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
         <v>374</v>
       </c>
-      <c r="L41" t="s">
-        <v>375</v>
-      </c>
-      <c r="M41" t="n">
-        <v>5</v>
-      </c>
-      <c r="N41" t="s">
-        <v>376</v>
-      </c>
       <c r="O41" t="s">
-        <v>62</v>
-      </c>
-      <c r="P41" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
       <c r="Q41" t="s"/>
-      <c r="R41" t="n">
-        <v>5</v>
-      </c>
+      <c r="R41" t="s"/>
       <c r="S41" t="n">
         <v>5</v>
       </c>
@@ -4289,13 +4991,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
+        <v>375</v>
+      </c>
+      <c r="X41" t="s">
+        <v>376</v>
+      </c>
+      <c r="Y41" t="s">
         <v>377</v>
-      </c>
-      <c r="X41" t="s">
-        <v>378</v>
-      </c>
-      <c r="Y41" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="42">
@@ -4311,52 +5013,58 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
+        <v>378</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>379</v>
+      </c>
+      <c r="J42" t="s">
         <v>380</v>
       </c>
-      <c r="G42" t="s">
-        <v>46</v>
-      </c>
-      <c r="H42" t="s">
-        <v>47</v>
-      </c>
-      <c r="I42" t="s">
+      <c r="K42" t="s">
         <v>381</v>
       </c>
-      <c r="J42" t="s">
+      <c r="L42" t="s">
         <v>382</v>
       </c>
-      <c r="K42" t="s">
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>374</v>
+      </c>
+      <c r="O42" t="s">
+        <v>367</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="s"/>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
         <v>383</v>
       </c>
-      <c r="L42" t="s">
+      <c r="X42" t="s">
         <v>384</v>
       </c>
-      <c r="M42" t="n">
-        <v>4</v>
-      </c>
-      <c r="N42" t="s">
-        <v>376</v>
-      </c>
-      <c r="O42" t="s">
-        <v>62</v>
-      </c>
-      <c r="P42" t="s"/>
-      <c r="Q42" t="s"/>
-      <c r="R42" t="s"/>
-      <c r="S42" t="s"/>
-      <c r="T42" t="s"/>
-      <c r="U42" t="s"/>
-      <c r="V42" t="n">
-        <v>0</v>
-      </c>
-      <c r="W42" t="s">
+      <c r="Y42" t="s">
         <v>385</v>
-      </c>
-      <c r="X42" t="s">
-        <v>386</v>
-      </c>
-      <c r="Y42" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="43">
@@ -4372,58 +5080,2059 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
+        <v>386</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>387</v>
+      </c>
+      <c r="J43" t="s">
         <v>388</v>
       </c>
-      <c r="G43" t="s">
-        <v>46</v>
-      </c>
-      <c r="H43" t="s">
-        <v>47</v>
-      </c>
-      <c r="I43" t="s">
+      <c r="K43" t="s">
         <v>389</v>
       </c>
-      <c r="J43" t="s">
+      <c r="L43" t="s">
         <v>390</v>
-      </c>
-      <c r="K43" t="s">
-        <v>391</v>
-      </c>
-      <c r="L43" t="s">
-        <v>392</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="O43" t="s">
-        <v>62</v>
-      </c>
-      <c r="P43" t="s"/>
-      <c r="Q43" t="n">
-        <v>5</v>
-      </c>
-      <c r="R43" t="n">
-        <v>5</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
       <c r="S43" t="s"/>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="X43" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="Y43" t="s">
         <v>393</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>63419</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>394</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>395</v>
+      </c>
+      <c r="J44" t="s">
+        <v>396</v>
+      </c>
+      <c r="K44" t="s">
+        <v>306</v>
+      </c>
+      <c r="L44" t="s">
+        <v>397</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>374</v>
+      </c>
+      <c r="O44" t="s">
+        <v>89</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>398</v>
+      </c>
+      <c r="X44" t="s">
+        <v>399</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>63419</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>401</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>402</v>
+      </c>
+      <c r="J45" t="s">
+        <v>403</v>
+      </c>
+      <c r="K45" t="s">
+        <v>404</v>
+      </c>
+      <c r="L45" t="s">
+        <v>405</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>374</v>
+      </c>
+      <c r="O45" t="s">
+        <v>89</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>398</v>
+      </c>
+      <c r="X45" t="s">
+        <v>399</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>63419</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>407</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>408</v>
+      </c>
+      <c r="J46" t="s">
+        <v>409</v>
+      </c>
+      <c r="K46" t="s">
+        <v>410</v>
+      </c>
+      <c r="L46" t="s">
+        <v>411</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>374</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>412</v>
+      </c>
+      <c r="X46" t="s">
+        <v>413</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>63419</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>415</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>416</v>
+      </c>
+      <c r="J47" t="s">
+        <v>417</v>
+      </c>
+      <c r="K47" t="s">
+        <v>418</v>
+      </c>
+      <c r="L47" t="s">
+        <v>419</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>420</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>421</v>
+      </c>
+      <c r="X47" t="s">
+        <v>422</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>63419</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>424</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>425</v>
+      </c>
+      <c r="J48" t="s">
+        <v>426</v>
+      </c>
+      <c r="K48" t="s">
+        <v>427</v>
+      </c>
+      <c r="L48" t="s">
+        <v>428</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>429</v>
+      </c>
+      <c r="O48" t="s">
+        <v>63</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>430</v>
+      </c>
+      <c r="X48" t="s">
+        <v>431</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>63419</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>433</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>434</v>
+      </c>
+      <c r="J49" t="s">
+        <v>435</v>
+      </c>
+      <c r="K49" t="s">
+        <v>436</v>
+      </c>
+      <c r="L49" t="s">
+        <v>437</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>438</v>
+      </c>
+      <c r="O49" t="s">
+        <v>89</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>439</v>
+      </c>
+      <c r="X49" t="s">
+        <v>440</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>63419</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>442</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>443</v>
+      </c>
+      <c r="J50" t="s">
+        <v>444</v>
+      </c>
+      <c r="K50" t="s">
+        <v>445</v>
+      </c>
+      <c r="L50" t="s">
+        <v>446</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>447</v>
+      </c>
+      <c r="O50" t="s">
+        <v>89</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>439</v>
+      </c>
+      <c r="X50" t="s">
+        <v>440</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>63419</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>449</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>450</v>
+      </c>
+      <c r="J51" t="s">
+        <v>451</v>
+      </c>
+      <c r="K51" t="s">
+        <v>452</v>
+      </c>
+      <c r="L51" t="s">
+        <v>453</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>454</v>
+      </c>
+      <c r="O51" t="s">
+        <v>89</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>455</v>
+      </c>
+      <c r="X51" t="s">
+        <v>440</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>63419</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>457</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>458</v>
+      </c>
+      <c r="J52" t="s">
+        <v>459</v>
+      </c>
+      <c r="K52" t="s">
+        <v>460</v>
+      </c>
+      <c r="L52" t="s">
+        <v>461</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2</v>
+      </c>
+      <c r="N52" t="s">
+        <v>454</v>
+      </c>
+      <c r="O52" t="s">
+        <v>367</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>3</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>462</v>
+      </c>
+      <c r="X52" t="s">
+        <v>463</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>63419</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>465</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>466</v>
+      </c>
+      <c r="J53" t="s">
+        <v>467</v>
+      </c>
+      <c r="K53" t="s">
+        <v>468</v>
+      </c>
+      <c r="L53" t="s">
+        <v>469</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>454</v>
+      </c>
+      <c r="O53" t="s">
+        <v>63</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>470</v>
+      </c>
+      <c r="X53" t="s">
+        <v>471</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>63419</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>473</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>474</v>
+      </c>
+      <c r="J54" t="s">
+        <v>475</v>
+      </c>
+      <c r="K54" t="s">
+        <v>476</v>
+      </c>
+      <c r="L54" t="s">
+        <v>477</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>454</v>
+      </c>
+      <c r="O54" t="s">
+        <v>89</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>439</v>
+      </c>
+      <c r="X54" t="s">
+        <v>440</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>63419</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>479</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>480</v>
+      </c>
+      <c r="J55" t="s">
+        <v>481</v>
+      </c>
+      <c r="K55" t="s">
+        <v>482</v>
+      </c>
+      <c r="L55" t="s">
+        <v>483</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>484</v>
+      </c>
+      <c r="O55" t="s">
+        <v>89</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="s"/>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>485</v>
+      </c>
+      <c r="X55" t="s">
+        <v>486</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>63419</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>488</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>489</v>
+      </c>
+      <c r="J56" t="s">
+        <v>490</v>
+      </c>
+      <c r="K56" t="s">
+        <v>491</v>
+      </c>
+      <c r="L56" t="s">
+        <v>492</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>484</v>
+      </c>
+      <c r="O56" t="s">
+        <v>89</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>493</v>
+      </c>
+      <c r="X56" t="s">
+        <v>494</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>63419</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>496</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>497</v>
+      </c>
+      <c r="J57" t="s">
+        <v>498</v>
+      </c>
+      <c r="K57" t="s">
+        <v>499</v>
+      </c>
+      <c r="L57" t="s">
+        <v>500</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>501</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="s"/>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>502</v>
+      </c>
+      <c r="X57" t="s">
+        <v>503</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>63419</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>505</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>506</v>
+      </c>
+      <c r="J58" t="s">
+        <v>507</v>
+      </c>
+      <c r="K58" t="s">
+        <v>508</v>
+      </c>
+      <c r="L58" t="s">
+        <v>509</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>510</v>
+      </c>
+      <c r="O58" t="s">
+        <v>89</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>511</v>
+      </c>
+      <c r="X58" t="s">
+        <v>512</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>63419</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>514</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>515</v>
+      </c>
+      <c r="J59" t="s">
+        <v>516</v>
+      </c>
+      <c r="K59" t="s">
+        <v>517</v>
+      </c>
+      <c r="L59" t="s">
+        <v>518</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>510</v>
+      </c>
+      <c r="O59" t="s">
+        <v>89</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>519</v>
+      </c>
+      <c r="X59" t="s">
+        <v>520</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>63419</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>522</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>523</v>
+      </c>
+      <c r="J60" t="s">
+        <v>524</v>
+      </c>
+      <c r="K60" t="s">
+        <v>525</v>
+      </c>
+      <c r="L60" t="s">
+        <v>526</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3</v>
+      </c>
+      <c r="N60" t="s">
+        <v>527</v>
+      </c>
+      <c r="O60" t="s">
+        <v>89</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>3</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>519</v>
+      </c>
+      <c r="X60" t="s">
+        <v>520</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>63419</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>529</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>530</v>
+      </c>
+      <c r="J61" t="s">
+        <v>531</v>
+      </c>
+      <c r="K61" t="s">
+        <v>532</v>
+      </c>
+      <c r="L61" t="s">
+        <v>533</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>534</v>
+      </c>
+      <c r="O61" t="s">
+        <v>63</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>535</v>
+      </c>
+      <c r="X61" t="s">
+        <v>536</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>63419</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>538</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>539</v>
+      </c>
+      <c r="J62" t="s">
+        <v>540</v>
+      </c>
+      <c r="K62" t="s">
+        <v>541</v>
+      </c>
+      <c r="L62" t="s">
+        <v>542</v>
+      </c>
+      <c r="M62" t="n">
+        <v>2</v>
+      </c>
+      <c r="N62" t="s">
+        <v>501</v>
+      </c>
+      <c r="O62" t="s">
+        <v>367</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="n">
+        <v>3</v>
+      </c>
+      <c r="R62" t="s"/>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>2</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>543</v>
+      </c>
+      <c r="X62" t="s">
+        <v>544</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>63419</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>546</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>547</v>
+      </c>
+      <c r="J63" t="s">
+        <v>548</v>
+      </c>
+      <c r="K63" t="s">
+        <v>549</v>
+      </c>
+      <c r="L63" t="s">
+        <v>550</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>551</v>
+      </c>
+      <c r="O63" t="s">
+        <v>89</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>3</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>543</v>
+      </c>
+      <c r="X63" t="s">
+        <v>544</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63419</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>553</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>554</v>
+      </c>
+      <c r="J64" t="s">
+        <v>555</v>
+      </c>
+      <c r="K64" t="s">
+        <v>556</v>
+      </c>
+      <c r="L64" t="s">
+        <v>557</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>558</v>
+      </c>
+      <c r="O64" t="s">
+        <v>89</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>559</v>
+      </c>
+      <c r="X64" t="s">
+        <v>560</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>63419</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>562</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>563</v>
+      </c>
+      <c r="J65" t="s">
+        <v>564</v>
+      </c>
+      <c r="K65" t="s">
+        <v>565</v>
+      </c>
+      <c r="L65" t="s">
+        <v>566</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>558</v>
+      </c>
+      <c r="O65" t="s">
+        <v>89</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>567</v>
+      </c>
+      <c r="X65" t="s">
+        <v>568</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>63419</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>570</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>571</v>
+      </c>
+      <c r="J66" t="s">
+        <v>572</v>
+      </c>
+      <c r="K66" t="s">
+        <v>573</v>
+      </c>
+      <c r="L66" t="s">
+        <v>574</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>575</v>
+      </c>
+      <c r="O66" t="s">
+        <v>89</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>567</v>
+      </c>
+      <c r="X66" t="s">
+        <v>568</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>63419</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>577</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>578</v>
+      </c>
+      <c r="J67" t="s">
+        <v>579</v>
+      </c>
+      <c r="K67" t="s">
+        <v>580</v>
+      </c>
+      <c r="L67" t="s">
+        <v>581</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>582</v>
+      </c>
+      <c r="O67" t="s">
+        <v>63</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>583</v>
+      </c>
+      <c r="X67" t="s">
+        <v>584</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>63419</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>586</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>587</v>
+      </c>
+      <c r="J68" t="s">
+        <v>588</v>
+      </c>
+      <c r="K68" t="s">
+        <v>589</v>
+      </c>
+      <c r="L68" t="s">
+        <v>590</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>582</v>
+      </c>
+      <c r="O68" t="s">
+        <v>89</v>
+      </c>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>591</v>
+      </c>
+      <c r="X68" t="s">
+        <v>592</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>63419</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>594</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>595</v>
+      </c>
+      <c r="J69" t="s">
+        <v>596</v>
+      </c>
+      <c r="K69" t="s">
+        <v>597</v>
+      </c>
+      <c r="L69" t="s">
+        <v>598</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>599</v>
+      </c>
+      <c r="O69" t="s">
+        <v>63</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>600</v>
+      </c>
+      <c r="X69" t="s">
+        <v>601</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>63419</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>603</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>604</v>
+      </c>
+      <c r="J70" t="s">
+        <v>605</v>
+      </c>
+      <c r="K70" t="s">
+        <v>606</v>
+      </c>
+      <c r="L70" t="s">
+        <v>607</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>608</v>
+      </c>
+      <c r="O70" t="s">
+        <v>89</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>600</v>
+      </c>
+      <c r="X70" t="s">
+        <v>601</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>63419</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>610</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>611</v>
+      </c>
+      <c r="J71" t="s">
+        <v>612</v>
+      </c>
+      <c r="K71" t="s">
+        <v>613</v>
+      </c>
+      <c r="L71" t="s">
+        <v>614</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>608</v>
+      </c>
+      <c r="O71" t="s">
+        <v>89</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="s"/>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>615</v>
+      </c>
+      <c r="X71" t="s">
+        <v>616</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>63419</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>618</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>619</v>
+      </c>
+      <c r="J72" t="s">
+        <v>620</v>
+      </c>
+      <c r="K72" t="s">
+        <v>621</v>
+      </c>
+      <c r="L72" t="s">
+        <v>622</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>608</v>
+      </c>
+      <c r="O72" t="s">
+        <v>89</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>4</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>615</v>
+      </c>
+      <c r="X72" t="s">
+        <v>616</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>63419</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>624</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>625</v>
+      </c>
+      <c r="J73" t="s">
+        <v>626</v>
+      </c>
+      <c r="K73" t="s">
+        <v>627</v>
+      </c>
+      <c r="L73" t="s">
+        <v>628</v>
+      </c>
+      <c r="M73" t="n">
+        <v>2</v>
+      </c>
+      <c r="N73" t="s">
+        <v>629</v>
+      </c>
+      <c r="O73" t="s">
+        <v>63</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="s"/>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>630</v>
+      </c>
+      <c r="X73" t="s">
+        <v>631</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>63419</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>633</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>634</v>
+      </c>
+      <c r="J74" t="s">
+        <v>635</v>
+      </c>
+      <c r="K74" t="s">
+        <v>636</v>
+      </c>
+      <c r="L74" t="s">
+        <v>637</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>638</v>
+      </c>
+      <c r="O74" t="s">
+        <v>89</v>
+      </c>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>630</v>
+      </c>
+      <c r="X74" t="s">
+        <v>631</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>639</v>
       </c>
     </row>
   </sheetData>
